--- a/data/performance_sheets_option2/window2/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window2/BA11 Overall Model Peformance Results.xlsx
@@ -883,25 +883,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>21.40085768363254</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -971,25 +1007,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02318331095108384</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.126011857003465</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1700459852835665</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1522606677743265</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.87119865997597</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.02249837693077362</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1245823260858609</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1685735607921824</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1499945896716732</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>18.67385691817612</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -1513,25 +1585,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02725143300886463</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1243487007791708</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.155569476543128</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1650800805938276</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>17.37361433185083</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.02729919383240875</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1246947185145159</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1564297233484333</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1652246768264618</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>17.44701164538177</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -1621,25 +1729,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02913377434015274</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1385247558355331</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2123886793851852</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1706861867291924</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.31550705432892</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.02878423221409321</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1394720077514648</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2108187675476074</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1696591648396667</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>20.22354751825333</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -1647,25 +1791,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01627653650939465</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1138708591461182</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1619030237197876</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.127579530134715</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>17.52398163080215</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01912395842373371</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1219100952148438</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1746913641691208</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1382894009811804</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>17.43930280208588</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -1673,25 +1853,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03281286731362343</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1455455124378204</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2076090127229691</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1811432232064546</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>21.42500132322311</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.03087292611598969</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1384067982435226</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1875170022249222</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1757069324642306</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>19.83614861965179</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,25 +2198,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.2017972742216</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -2070,25 +2322,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1166351266428194</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.294273898863055</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1172543513233082</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3415188525437788</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.84145850273955</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3221512795485805</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4828767413201455</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1999495023996234</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.567583720299112</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>23.06696884657088</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -2612,25 +2900,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.4918385339437786</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.6072024786095941</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2560156264504031</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7013120089830051</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>26.17968208576268</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.4223242730392235</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.5440973911090728</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2618009694039464</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.6498648113563493</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>23.13544585237133</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -2720,25 +3044,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2793665826320648</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3209866583347321</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2051274180412292</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5285514001798357</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>14.01305347681046</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.266853928565979</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3349109292030334</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2057509869337082</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5165790632284462</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>14.41512703895569</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -2746,25 +3106,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.119640938937664</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2787138521671295</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1102132797241211</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3458915132489724</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>9.238366782665253</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.09978591650724411</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2474201023578644</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.09758134186267853</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3158890889335118</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>9.097331017255783</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -2772,25 +3168,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2710505127906799</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3172970712184906</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2031116634607315</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5206251173259699</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>13.61455470323563</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>4.11721658706665</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.902838826179504</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.9051091074943542</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>2.029092552612288</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>54.08604145050049</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3078,25 +3510,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.02166239305382</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -3166,25 +3634,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.09577698601752702</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2535640237679083</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.09962893677961866</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3094785711766277</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>9.983106744119862</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3244698801213782</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5243664404787421</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2097728806926168</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5696225769063039</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>18.83568397962643</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -3708,25 +4212,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>3.448031133808566</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1.762762464226574</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6697102916457255</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.856887485500553</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>108.9417073176851</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.5351578309451028</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.6086255203792399</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2239545785246477</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7315448249732226</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>25.92465214837999</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -3816,25 +4356,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1480943262577057</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2547292709350586</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1197675094008446</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3848302564218485</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.68240776658058</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1410402357578278</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2562800049781799</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1184656620025635</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3755532395783955</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>10.89847385883331</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -3842,25 +4418,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06865900754928589</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2259290963411331</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08217762410640717</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2620286387960024</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.80709981918335</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.06540818512439728</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2157729268074036</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.0780828520655632</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2557502397347797</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>8.360926806926727</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -3868,25 +4480,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9225071668624878</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.8577291369438171</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3636088371276855</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.9604723665272665</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>28.4026175737381</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1341808289289474</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2437614053487778</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1168593987822533</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.366307014577864</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>9.775853157043457</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4174,25 +4822,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.834417109646166</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -4262,25 +4946,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1398609966205653</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3309292676638445</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1206694606400988</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3739799414682093</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.05976936983561</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.4211746373077975</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5511626155500322</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2020045767401579</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6489796894416631</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>21.02238310973943</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -4804,25 +5524,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.051507692166143</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.9430657860965671</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.337396102404538</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.02543049114318</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>42.26774941869939</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.5795407135326099</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.6607600196164908</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2319212772378637</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7612757145296374</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>27.32094146922273</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -4912,25 +5668,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06368055939674377</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2166567593812943</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.07951648533344269</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2523500731062778</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7.328552752733231</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05342794582247734</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1766709387302399</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.0644649937748909</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2311448589574887</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>7.447740435600281</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -4938,25 +5730,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04808218777179718</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1931160688400269</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06817618012428284</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.219276509849544</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.052837148308754</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02085926942527294</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1173834800720215</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.04141770303249359</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1444273846099587</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>6.727421283721924</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -4964,25 +5792,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1785682886838913</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3835660815238953</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1343558132648468</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4225734121828908</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>14.59501087665558</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.135036110877991</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.012913346290588</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3786611258983612</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.065380735173107</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>31.13608658313751</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5268,25 +6132,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05474586346482115</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1561035865899559</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.463725255094422</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2339783397343035</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>31.84971423703507</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05474586346482117</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1561035865899559</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.463725255094422</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2339783397343035</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>31.84971423703508</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -5356,25 +6256,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4193856260152439</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5973340539100465</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.647599896552836</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>200</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1073574393420992</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3062505288213078</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.141868221620253</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.3276544511251133</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>68.24577305780217</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -5898,25 +6834,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.07484681951638376</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2134170232314372</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.644640430905179</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2735814677868071</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>39.618228844836</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.07484681951638376</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2134170232314372</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.644640430905179</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2735814677868071</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>39.618228844836</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -6006,25 +6978,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1303910464048386</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2817836999893188</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.879688262939453</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3610970041482462</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>46.69333100318909</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.0884099081158638</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2412241697311401</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.285746216773987</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2973380367794605</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>42.08338856697083</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -6032,25 +7040,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03603074327111244</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1266568750143051</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6025146245956421</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1898176579539228</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>40.04354178905487</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05888664349913597</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1940105110406876</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.5172625780105591</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2426657031785414</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>48.45746159553528</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -6058,25 +7102,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1357999593019485</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3094799220561981</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.936418294906616</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3685104602341005</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>54.45249080657959</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1160859242081642</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2455448508262634</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.70474112033844</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3407138450491324</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>41.94070994853973</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6362,25 +7442,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06834122026298313</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2053780216200532</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.630610378209952</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2614215374887523</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>39.10374295068142</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06834122026298313</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2053780216200532</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.630610378209952</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2614215374887523</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>39.10374295068142</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -6450,25 +7566,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3695468301054595</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5390761035744012</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.9662536122922788</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6079036355422293</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>148.1846251715514</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3668478790984426</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5350891956954033</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9252062080302907</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6056796835774192</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>145.5814372590731</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -6992,25 +8144,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06928202500348928</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2066823920894507</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.647302078191616</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2632147887248915</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>39.22953113949018</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.06928202500348928</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2066823920894507</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.647302078191616</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2632147887248915</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>39.22953113949018</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -7100,25 +8288,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1251299381256104</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2848092615604401</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.848270297050476</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3537371031226585</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>48.99340569972992</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.09660483151674271</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2492305189371109</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.720493793487549</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3108131778363696</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>42.78500080108643</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -7126,25 +8350,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06577903777360916</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2129580974578857</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.628330409526825</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2564742438795934</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>37.73173689842224</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>27098568</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>4860.88525390625</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>10550.7861328125</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>5205.628492314833</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -7152,25 +8412,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2797280550003052</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4186747968196869</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.78313148021698</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.528893235918465</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>102.7633190155029</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2917080223560333</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4428943991661072</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.371656656265259</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5401000114386532</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>102.1780371665955</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7456,25 +8752,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06725661757062271</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2043817523455964</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.63073141865021</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593388084545441</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>38.48364041756974</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06725661757062271</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2043817523455964</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.63073141865021</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2593388084545441</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>38.48364041756974</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -7544,25 +8876,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3636460835014859</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5433862837107105</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.153687256827076</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6030307483880784</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>145.3117323786315</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3811066101387294</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5654800677733564</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9194424797842633</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.617338327126001</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>169.9676409235431</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -8086,25 +9454,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0519997465116185</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1765658199330702</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.565787712229261</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2280345292091057</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>34.93645250746249</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05076459136673969</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.165781046382461</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.609008414117752</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2253099894961155</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>33.02909247010019</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -8194,25 +9598,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.08053234219551086</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2188825011253357</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.754631280899048</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2837822090891373</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>41.57634079456329</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.0763658881187439</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2202041000127792</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.754772543907166</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2763437861048153</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>39.41323459148407</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -8220,25 +9660,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06452758610248566</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1774846166372299</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6329672932624817</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2540228062644881</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>42.24836826324463</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04754416272044182</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1453985571861267</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.5268720388412476</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2180462398676983</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>37.31303811073303</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -8246,25 +9722,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.145158514380455</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3204335570335388</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.70947277545929</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3809967380181293</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>69.25800442695618</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1056024059653282</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2477511465549469</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.838666200637817</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3249652380875964</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>49.43049550056458</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8550,25 +10062,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6257662666205206</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4011180826469165</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6062875802904727</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7910538961540614</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>19.94247866720976</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.6257662666205206</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.4011180826469165</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6062875802904727</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.7910538961540614</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>19.94247866720976</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -8638,25 +10186,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.295713890119815</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.431295883350943</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.992299362089084</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.509126120807764</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>178.1484440362642</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>6.285490447960541</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.38178129814785</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.023485959863586</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.507088041525575</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>157.9175449834099</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -9180,25 +10764,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.6095355198610305</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3980523559641109</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6010302407195709</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.780727558025865</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>19.82705586314702</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.6095355198610305</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3980523559641109</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6010302407195709</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.780727558025865</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>19.82705586314702</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -9288,25 +10908,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.7576348185539246</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.7329683899879456</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5356085300445557</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.8704222070661597</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>39.25909698009491</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.7603321075439453</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.5026739239692688</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.683340311050415</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.8719702446436721</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>23.73082935810089</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -9314,25 +10970,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.3712947368621826</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4468487501144409</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.4531064331531525</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.609339590755584</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>22.00496792793274</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.3993401825428009</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4627942740917206</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.5481311082839966</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.631933685241419</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>24.51276928186417</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -9340,25 +11032,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.729541659355164</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.9997428059577942</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.888704776763916</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.315120397285041</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>38.69633376598358</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.874224066734314</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.598359227180481</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.7117204070091248</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.9349995009273074</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>26.50066018104553</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9644,25 +11372,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.5440884572019422</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3692349391290017</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5433468036089538</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7376235199625498</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>19.04856062020076</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.6116727752708141</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3656294005741575</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6331239977022973</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.7820951190685275</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>18.07711154836788</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -9732,25 +11496,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>14.92498321868537</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3.458798460102136</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.875973305701093</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>3.863286582520817</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>168.0941857611412</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.4908834688505802</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3175909028417379</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.5572312294355426</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.7006307649900768</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>16.89848048975398</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -10274,25 +12074,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5574278639508986</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3712980419430403</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5870638477573765</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7466109187193143</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>18.94271014353479</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.5449610828260236</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3717322086586705</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.5884222293653868</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7382147945049757</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>18.99667420468428</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -10382,25 +12218,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6012844443321228</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4241236448287964</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5903083086013794</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.7754253312422305</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>24.06742870807648</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.6765714883804321</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.4631957709789276</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.6531283259391785</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.8225396576338627</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>22.25051075220108</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -10408,25 +12280,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1305465978880</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>993415.6875</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>474264.28125</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1142569.901091395</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>199.9997854232788</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.3598961234092712</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.3890449106693268</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.5134718418121338</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.5999134299290784</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>18.81284266710281</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -10434,25 +12342,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4029.72998046875</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>49.07501983642578</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>25.9557056427002</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>63.4801542253069</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>184.4033241271973</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.871346116065979</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4907605051994324</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.7263699769973755</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.933459220355115</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>22.28033542633057</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10738,25 +12682,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.672366185836622</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4596657211954301</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3795317704553525</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8199793813484715</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.56715269209275</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.5168298178044743</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3040068211799011</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.27068719169026</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.7189087687630986</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>15.07905309422617</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -10826,25 +12806,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4279686905369617</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3296554870268785</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2793522747435711</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6541931599588624</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>17.06941590666621</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>7.970073025314451</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.493961793300526</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.12517321792414</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.823131776115747</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>143.1482387871324</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -11368,25 +13384,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.4786908779573188</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2795385896733029</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2668195377649311</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.6918749005111536</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>14.27741534493625</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.4762061613332538</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2754554591345393</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2646774928451864</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.6900769242144341</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>14.11667554390949</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -11476,25 +13528,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.9981916546821594</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.6698644161224365</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.488521546125412</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.9990954182069696</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>28.51204872131348</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.6926677823066711</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.4480719268321991</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3785127401351929</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.832266653366979</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>22.63674587011337</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -11502,25 +13590,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.3506598472595215</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3470413684844971</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2202549576759338</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.5921653884342798</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>16.29753857851028</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.3696954250335693</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.3856954276561737</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2256119698286057</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.6080258424060356</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>18.98010820150375</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -11528,25 +13652,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.409579992294312</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.6591973304748535</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5340158939361572</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.18725734038342</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>26.04203522205353</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>67.74260711669922</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>6.888402938842773</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>3.166079998016357</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>8.230589718647092</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>156.4255833625793</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11796,13 +13956,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -11866,13 +14044,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02038857403987366</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1112476956031913</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1472504280743567</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1427885641074721</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.73993630831041</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -12282,13 +14478,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03637772233756317</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1414468720063614</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1854988636491001</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1907294480083324</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>20.95490596653418</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -12390,13 +14604,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03034096583724022</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1470701098442078</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2148486375808716</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1741865834019378</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.02384215593338</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -12416,13 +14648,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01567118801176548</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1096865460276604</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1541749686002731</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1251846157152127</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>17.22855716943741</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -12442,13 +14692,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.02783705852925777</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1390746831893921</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2141223400831223</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1668444141386153</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>19.86039280891418</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -12746,25 +15014,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04377285395872856</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1627441219951585</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.4327899107172457</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2092196309114624</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>31.17291429381028</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04448949684801774</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1618196904100054</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.4334278238972956</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2109253347704295</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.58235742064967</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -12834,25 +15138,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03276839407877064</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1369327250871655</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3537244566174633</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1810204244795892</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>24.05781496995306</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.03247456093675517</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1363984822108544</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3527569988919325</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1802069946943103</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>23.97285563833515</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -13376,25 +15716,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03000538776448996</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1268096081058513</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3784154479694666</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1732206331950382</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>22.68708325465058</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.02907409505069043</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.12620542137573</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3792767129468217</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1705112754356451</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>21.92473990054418</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -13484,25 +15860,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05289673432707787</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1814384460449219</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5502780675888062</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2299929006014705</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>30.07496893405914</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05305165797472</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.180695965886116</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.5552529096603394</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2303294552911546</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>30.12459278106689</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -13510,25 +15922,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03135431185364723</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1513099670410156</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2632592916488647</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1770714879749059</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.57026338577271</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03434035554528236</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1573571115732193</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2773779034614563</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1853115094787217</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>23.69929403066635</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -13536,25 +15984,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04962120577692986</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.149002730846405</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5562013387680054</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2227581778003444</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>25.25322139263153</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.05479798838496208</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1673924177885056</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.5799567699432373</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2340897015781815</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>27.87800133228302</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13804,13 +16288,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -13874,13 +16376,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.07706938012820704</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2376623906410265</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4190958201555056</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2776137246755049</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>41.16945627450897</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -14290,13 +16810,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.04857253880210374</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1759669053103863</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3354370410745176</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2203917847881444</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.18623365217133</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -14398,13 +16936,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04806936904788017</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1774345189332962</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3763512074947357</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2192472783135065</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>26.74716413021088</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -14424,13 +16980,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04522446915507317</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1746635437011719</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2371545135974884</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2126604550805654</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.32761436700821</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -14450,13 +17024,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04230044409632683</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1643566489219666</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3368240594863892</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2056707176443132</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>25.37647485733032</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -14718,13 +17310,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.89228775050308</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -14788,13 +17398,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05416642155735302</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1825288370776698</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4705924783213175</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2327368074829442</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>30.95162101447211</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -15204,13 +17832,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03929444588778564</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1523308860440497</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4647336214802634</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1982282671260223</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>26.0928436266239</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -15312,13 +17958,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06093414500355721</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1999149918556213</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5883275866508484</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2468484251591596</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>30.49632608890533</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -15338,13 +18002,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03094595856964588</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1504214704036713</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2580819129943848</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1759146343248505</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.63810539245605</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -15364,13 +18046,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05435044318437576</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1600736081600189</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5561851263046265</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2331318150411388</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>26.55532658100128</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -15632,13 +18332,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -15702,13 +18420,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1751885660158428</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3463950500272504</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1190325399000632</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4185553320838749</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.99439137621602</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -16118,13 +18854,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5322012600901121</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.495291168116549</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1812055603391162</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7295212540359</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>23.67131647433326</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -16226,13 +18980,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05906866118311882</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.199844628572464</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.07299162447452545</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2430404517423361</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7.286549359560013</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -16252,13 +19024,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03583057597279549</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1671579331159592</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.05914987623691559</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1892896615581408</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.013498827815056</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16278,13 +19068,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05893507599830627</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1782571375370026</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.06818737089633942</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2427654753013827</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>6.480737775564194</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -16546,13 +19354,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -16616,13 +19442,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2309588002972173</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3931306295245982</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1572899000354111</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4805817311313626</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.64433005854967</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -17032,13 +19876,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.19740052038159</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3095634707177017</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1275721064097398</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.4442977834533839</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>12.71144712028139</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -17140,13 +20002,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1569834500551224</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2670921981334686</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1250860095024109</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.396211370426345</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.65171360969543</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -17166,13 +20046,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05373571068048477</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1960595101118088</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07292971760034561</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2318096431999428</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.385265082120895</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -17192,13 +20090,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3727709650993347</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4839229583740234</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2178178876638412</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.610549723691146</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>17.59818196296692</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -17460,13 +20376,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -17530,13 +20464,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2944677060769736</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4241657950751955</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2180843184261853</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5426487870409126</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.02626723375442</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -17946,13 +20898,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5782381896765529</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.4536291520444006</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1818892323184358</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7604197457171618</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>22.50211539043995</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -18054,13 +21024,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2681398689746857</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3234645426273346</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2048049122095108</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.517822236848405</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.98947387933731</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -18080,13 +21068,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0919954851269722</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2417795360088348</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.09412771463394165</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3033075751229636</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.769924193620682</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -18106,13 +21112,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4395884573459625</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.446157842874527</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2718798518180847</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.663014673552526</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>17.75363236665726</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -18410,25 +21434,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>26.8385981240602</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -18498,25 +21558,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04619804345421116</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1715089432531207</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3238217884906093</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2149373012164505</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>27.54603370766135</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04609618785696456</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1714818523700614</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3223886288484603</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2147002278922045</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>27.56010209213641</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -19040,25 +22136,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.04387523153841396</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1724603259434599</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3000942229919964</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2094641533494788</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.09666716501996</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.0472843860773027</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1818993507458713</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3322440771122023</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2174497322999104</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>29.78480364067566</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -19148,25 +22280,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04226412251591682</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1640177667140961</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3666678667068481</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.205582398361136</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.95390677452087</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.0429045595228672</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1616833209991455</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3657195568084717</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2071341582715589</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>26.18651986122131</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -19174,25 +22342,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02505956403911114</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1390515565872192</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2186023592948914</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1583021289784542</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>20.95089852809906</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02599281817674637</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1367814391851425</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2159368842840195</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.161222883539361</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>21.05372995138168</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -19200,25 +22404,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04019349813461304</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1512530744075775</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.31277996301651</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2004831617234052</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>24.28653836250305</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.05726822838187218</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1942335069179535</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.330126017332077</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2393078109503996</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>31.66327774524689</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19504,25 +22744,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.834417109646166</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -19592,25 +22868,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.160509145848194</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3348745707319975</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1150879177305153</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4006359268066133</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.48990898356738</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1606501950079543</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3349886415953258</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.115124928707643</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4008119197428568</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>12.49452809079979</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -20134,25 +23446,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.3186605641361788</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.4090326955428265</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1517426230707524</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5645002782427824</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>17.6966677078583</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1124350077656455</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2671712818916681</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.09416030860282913</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.3353132979254558</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>10.08582053450142</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -20242,25 +23590,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05269379913806915</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.192059338092804</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.06988801062107086</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2295512995782624</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7.299870252609253</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05884315446019173</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2038242071866989</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.07391665130853653</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2425760797362174</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>7.305769622325897</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -20268,25 +23652,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03940345346927643</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1737206727266312</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06157341226935387</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1985030313856099</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.001801416277885</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03542329370975494</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1651546210050583</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.05869114398956299</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1882107693777244</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>6.001803278923035</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -20294,25 +23714,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.08665941655635834</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2458307892084122</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.0852203443646431</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2943797149199624</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>8.994637429714203</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.06977852433919907</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2187426835298538</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.08365145325660706</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2641562498582971</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>7.872821390628815</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -20599,25 +24055,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.2017972742216</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -20687,25 +24179,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2928382017919841</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4207793667483262</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2183144020605171</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5411452686589656</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>17.85517622793126</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2926112817361877</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.420691824321363</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2182230586478696</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5409355615377748</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>17.85208857633551</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -21229,25 +24757,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.2348382144694545</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3320368954250486</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1378258751700163</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.484601087977993</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>14.52819954531807</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.09239490537452606</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2053374182081956</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1213766016836443</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.3039653029122338</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>9.472087660808329</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -21337,25 +24901,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2787654101848602</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3198097944259644</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2066579908132553</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5279823957149142</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>14.02672529220581</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2737998068332672</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3314309418201447</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2074807435274124</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5232588334975982</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>13.93048316240311</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -21363,25 +24963,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.07753145694732666</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2172932475805283</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08572838455438614</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2784447107548044</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.725080639123917</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.08822324126958847</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2344938218593597</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.0920528769493103</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2970239742337114</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>8.703835308551788</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -21389,25 +25025,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.53096604347229</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.489049881696701</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2971081435680389</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.7286741682482576</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>19.03237253427505</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.3837135136127472</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3736603260040283</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2430720776319504</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.6194461345530757</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>15.436090528965</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -21694,25 +25366,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.02166239305382</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -21782,25 +25490,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2157629917290099</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3801237274004825</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1530360154757276</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4645029512597417</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.07446127817528</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2156698420281371</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3799722444292625</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1529694628003872</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4644026722878941</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>15.06829461468616</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -22324,25 +26068,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.1298915258340236</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2721829094486415</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1080886636538588</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.3604046695508031</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>11.16135612882968</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1927025606490088</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3407909673480084</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1339241211713496</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.4389789979589101</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>14.62322872628163</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -22432,25 +26212,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1560487151145935</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2734221220016479</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1267098486423492</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3950300179917894</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.73548719286919</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1705866307020187</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2770913541316986</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1305122971534729</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.413021344124028</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>10.76443642377853</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -22458,25 +26274,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06029302626848221</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2077966183423996</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07717113941907883</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2455463831305243</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.392377406358719</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05131920054554939</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1900133639574051</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07083463668823242</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2265374153325437</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.395414263010025</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -22484,25 +26336,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.5781516432762146</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.7152373194694519</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2690288722515106</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.7603628365959337</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.24169504642487</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1482314318418503</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2514611780643463</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1197231635451317</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3850083529507513</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>10.04903391003609</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -22791,25 +26679,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>21.40085768363254</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -22879,25 +26803,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.0394029245394985</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1553672034602652</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2025301968251367</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.198501699084664</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>22.35446255634172</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.0394128379638916</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1554027336487668</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.202575806150061</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1985266681428256</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>22.36032204438795</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -23421,25 +27381,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05638819324270751</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1856548707940683</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2375059150275168</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2374619827313575</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.60793417389799</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04373629355561719</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1743710838840376</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2241161587233222</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2091322393979876</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>25.98459741655872</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -23529,25 +27525,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02641348354518414</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1355037689208984</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2032426595687866</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1625222555380774</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.13784050941467</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.0312223993241787</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1482874900102615</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2154392004013062</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1766986115513608</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>20.0887992978096</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -23555,25 +27587,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0289637353271246</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1489761173725128</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.216048076748848</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1701873536051507</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>17.90020018815994</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.0179254338145256</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1191477477550507</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1689298897981644</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1338858984901905</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>17.79734790325165</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -23581,25 +27649,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.02235838957130909</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.125405341386795</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1750850975513458</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1495272201684666</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>17.75241941213608</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.03122794628143311</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1446769684553146</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2037437707185745</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1767143069517381</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>20.69547772407532</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23889,25 +27993,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.89228775050308</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="15" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.89228775050308</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -23977,25 +28117,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05626324212185002</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1884870638701841</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4888207441301031</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2371987397138737</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>31.72864779380419</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.05626095339637213</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1884903352075292</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.4888339704692396</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2371939151756894</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>31.72922097135746</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -24519,25 +28695,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05747767375307843</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1905682672574251</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4941894224957669</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2397450182028366</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.04034218100848</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05736143367135827</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.197073069506045</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4807838088990477</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.239502471117436</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>33.66008423986911</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -24627,25 +28839,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05525935813784599</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1832725554704666</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5653179883956909</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2350730910543485</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>30.14949262142181</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05367078259587288</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.18153116106987</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.5560489892959595</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2316695547452726</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>30.03430366516113</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -24653,25 +28901,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03632483631372452</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1603395491838455</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2829635739326477</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1905907561077518</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.84505867958069</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03674349933862686</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1605233401060104</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2862152457237244</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1916859393347015</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>23.87588024139404</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -24679,25 +28963,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05496171489357948</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.185849130153656</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5379094481468201</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2344391496605878</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.96578419208527</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.07684127986431122</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2131281495094299</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.6900200247764587</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2772025971456819</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>33.38849544525146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24985,25 +29305,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>26.8385981240602</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -25073,25 +29429,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04713234420459114</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1729975236222779</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3304899975288136</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2170998484674532</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>27.70830762497317</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04711803653268334</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1729564404713406</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.330463864485848</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2170668941425277</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>27.70121266654575</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -25615,25 +30007,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.04782404615145833</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1742824912945103</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3331198320609985</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2186870964448025</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>27.90827569288556</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04782404615145833</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1742824912945103</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3331198320609985</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2186870964448025</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>27.90827569288556</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -25723,25 +30151,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04161088168621063</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1638941317796707</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.369904488325119</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2039874547275166</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>26.03089511394501</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.04255864769220352</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1674090921878815</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.373659074306488</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2062974737901643</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>26.17867588996887</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -25749,25 +30213,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03249134495854378</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1562687456607819</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2498891353607178</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.180253557408845</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>21.00166976451874</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03325865790247917</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1540208458900452</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2488728165626526</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1823695640793144</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>21.20094895362854</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -25775,25 +30275,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.0410287119448185</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1622723191976547</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3803178071975708</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2025554539991913</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>25.72228908538818</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04060755297541618</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.161787211894989</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3583229184150696</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2015131583182999</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>25.8159339427948</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/performance_sheets_option2/window2/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window2/BA11 Overall Model Peformance Results.xlsx
@@ -1798,23 +1798,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01627653650939465</v>
+        <v>0.020411416888237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1138708591461182</v>
+        <v>0.1268256306648254</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1619030237197876</v>
+        <v>0.1804457306861877</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.127579530134715</v>
+        <v>0.1428685300835597</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.52398163080215</v>
+        <v>17.00146943330765</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01912395842373371</v>
+        <v>0.02566281333565712</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1219100952148438</v>
+        <v>0.143996998667717</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1746913641691208</v>
+        <v>0.2007158994674683</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1382894009811804</v>
+        <v>0.1601961714138547</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.43930280208588</v>
+        <v>19.24308985471725</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3113,23 +3113,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.119640938937664</v>
+        <v>0.092054583132267</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2787138521671295</v>
+        <v>0.2329358607530594</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1102132797241211</v>
+        <v>0.08761801570653915</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3458915132489724</v>
+        <v>0.3034049820491862</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.238366782665253</v>
+        <v>8.701054006814957</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3147,19 +3147,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09978591650724411</v>
+        <v>0.08753513544797897</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2474201023578644</v>
+        <v>0.2288549095392227</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09758134186267853</v>
+        <v>0.09099902957677841</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3158890889335118</v>
+        <v>0.2958633729409218</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>9.097331017255783</v>
+        <v>8.587176352739334</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4425,53 +4425,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06780416518449783</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2219261676073074</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08314505964517593</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2603923293503436</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.020241558551788</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.06865900754928589</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.2259290963411331</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.08217762410640717</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.2620286387960024</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>7.80709981918335</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.06540818512439728</v>
+        <v>0.1486074328422546</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2157729268074036</v>
+        <v>0.2669064700603485</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.0780828520655632</v>
+        <v>0.09167826175689697</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2557502397347797</v>
+        <v>0.3854963460815869</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.360926806926727</v>
+        <v>9.856409579515457</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5737,53 +5737,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0244335513561964</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1327596455812454</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.04729794710874557</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1563123518989987</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>4.69798780977726</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.04808218777179718</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1931160688400269</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.06817618012428284</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.219276509849544</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>6.052837148308754</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.02085926942527294</v>
+        <v>0.09972786158323288</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1173834800720215</v>
+        <v>0.2842458486557007</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.04141770303249359</v>
+        <v>0.09974680840969086</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1444273846099587</v>
+        <v>0.3157971842547569</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.727421283721924</v>
+        <v>10.15830188989639</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7051,19 +7051,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03603074327111244</v>
+        <v>0.06491116434335709</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1266568750143051</v>
+        <v>0.2029897570610046</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6025146245956421</v>
+        <v>0.6868449449539185</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1898176579539228</v>
+        <v>0.2547766950554095</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>40.04354178905487</v>
+        <v>36.03572845458984</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7077,23 +7077,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05888664349913597</v>
+        <v>0.06575990468263626</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1940105110406876</v>
+        <v>0.1981789320707321</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5172625780105591</v>
+        <v>0.7207443714141846</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2426657031785414</v>
+        <v>0.2564369409477431</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>48.45746159553528</v>
+        <v>34.49362814426422</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8361,19 +8361,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06577903777360916</v>
+        <v>0.06650882959365845</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2129580974578857</v>
+        <v>0.2008156180381775</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.628330409526825</v>
+        <v>0.721078634262085</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2564742438795934</v>
+        <v>0.2578930584441125</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>37.73173689842224</v>
+        <v>35.67129969596863</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8387,23 +8387,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>27098568</v>
+        <v>0.07716864347457886</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>4860.88525390625</v>
+        <v>0.230043962597847</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>10550.7861328125</v>
+        <v>0.8189967274665833</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>5205.628492314833</v>
+        <v>0.2777924467558088</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>200</v>
+        <v>39.66483175754547</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9667,23 +9667,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06452758610248566</v>
+        <v>0.04351930692791939</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1774846166372299</v>
+        <v>0.1516842246055603</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6329672932624817</v>
+        <v>0.5146510004997253</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2540228062644881</v>
+        <v>0.2086128158285569</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>42.24836826324463</v>
+        <v>28.78985702991486</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9697,23 +9697,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04754416272044182</v>
+        <v>0.04894757270812988</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1453985571861267</v>
+        <v>0.155034601688385</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5268720388412476</v>
+        <v>0.5710111260414124</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2180462398676983</v>
+        <v>0.2212409833374682</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>37.31303811073303</v>
+        <v>30.8988094329834</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -10977,53 +10977,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.4198639392852783</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4370133578777313</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5328354835510254</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.647969088217392</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>19.37708556652069</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.3712947368621826</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.4468487501144409</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.4531064331531525</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.609339590755584</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>22.00496792793274</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.3993401825428009</v>
+        <v>0.3153021335601807</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4627942740917206</v>
+        <v>0.3602274060249329</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5481311082839966</v>
+        <v>0.4634511172771454</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.631933685241419</v>
+        <v>0.5615177054734611</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>24.51276928186417</v>
+        <v>16.34249240159988</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12287,53 +12287,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>6.110786437988281</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2.074970722198486</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.8912656903266907</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>2.472000493120558</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>111.8969559669495</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>1305465978880</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>993415.6875</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>474264.28125</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>1142569.901091395</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>199.9997854232788</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.3598961234092712</v>
+        <v>0.3275304138660431</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3890449106693268</v>
+        <v>0.3123791515827179</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5134718418121338</v>
+        <v>0.508469820022583</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5999134299290784</v>
+        <v>0.5723027292142185</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.81284266710281</v>
+        <v>14.48194980621338</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13597,53 +13597,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.223244771361351</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2258202284574509</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1606805622577667</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.4724878531363013</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.45406013727188</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.3506598472595215</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.3470413684844971</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.2202549576759338</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.5921653884342798</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>16.29753857851028</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.3696954250335693</v>
+        <v>0.1614773273468018</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3856954276561737</v>
+        <v>0.2932014763355255</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2256119698286057</v>
+        <v>0.1554796248674393</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6080258424060356</v>
+        <v>0.4018424160623189</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.98010820150375</v>
+        <v>12.91310787200928</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -14659,19 +14659,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01567118801176548</v>
+        <v>0.01970830373466015</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1096865460276604</v>
+        <v>0.1249490976333618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1541749686002731</v>
+        <v>0.1760486513376236</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1251846157152127</v>
+        <v>0.1403862661896104</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.22855716943741</v>
+        <v>16.73164665699005</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15929,53 +15929,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03421914950013161</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1546706259250641</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2767529785633087</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.184984187162394</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>22.73578643798828</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.03135431185364723</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1513099670410156</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.2632592916488647</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.1770714879749059</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>23.57026338577271</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.03434035554528236</v>
+        <v>0.03132815286517143</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1573571115732193</v>
+        <v>0.1499375998973846</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2773779034614563</v>
+        <v>0.261753261089325</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1853115094787217</v>
+        <v>0.176997606947584</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>23.69929403066635</v>
+        <v>22.11064398288727</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16987,23 +16987,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04522446915507317</v>
+        <v>0.02421441860496998</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1746635437011719</v>
+        <v>0.1307744681835175</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2371545135974884</v>
+        <v>0.1866393238306046</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2126604550805654</v>
+        <v>0.1556098281117551</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.32761436700821</v>
+        <v>18.08118224143982</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18009,23 +18009,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03094595856964588</v>
+        <v>0.03049172833561897</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1504214704036713</v>
+        <v>0.1438256800174713</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2580819129943848</v>
+        <v>0.2384230643510818</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1759146343248505</v>
+        <v>0.174618808653647</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.63810539245605</v>
+        <v>21.18883579969406</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19035,19 +19035,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03583057597279549</v>
+        <v>0.05737745761871338</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1671579331159592</v>
+        <v>0.2072916775941849</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05914987623691559</v>
+        <v>0.07245238870382309</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1892896615581408</v>
+        <v>0.2395359213535903</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.013498827815056</v>
+        <v>7.345712929964066</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20053,23 +20053,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05373571068048477</v>
+        <v>0.06260927021503448</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1960595101118088</v>
+        <v>0.2062396109104156</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07292971760034561</v>
+        <v>0.07710407674312592</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2318096431999428</v>
+        <v>0.2502184449936385</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.385265082120895</v>
+        <v>7.469600439071655</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21079,19 +21079,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0919954851269722</v>
+        <v>0.07789451628923416</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2417795360088348</v>
+        <v>0.2183056771755219</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09412771463394165</v>
+        <v>0.08547353744506836</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3033075751229636</v>
+        <v>0.2790958908497833</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.769924193620682</v>
+        <v>8.167500793933868</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22349,23 +22349,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02505956403911114</v>
+        <v>0.02754924446344376</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1390515565872192</v>
+        <v>0.1444018930196762</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2186023592948914</v>
+        <v>0.2260448336601257</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1583021289784542</v>
+        <v>0.1659796507510597</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.95089852809906</v>
+        <v>20.48941552639008</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22379,23 +22379,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02599281817674637</v>
+        <v>0.02965854480862617</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1367814391851425</v>
+        <v>0.1484932899475098</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2159368842840195</v>
+        <v>0.2332374900579453</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.161222883539361</v>
+        <v>0.1722165636883577</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.05372995138168</v>
+        <v>20.98640352487564</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23659,23 +23659,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03940345346927643</v>
+        <v>0.0393068790435791</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1737206727266312</v>
+        <v>0.1750414222478867</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06157341226935387</v>
+        <v>0.06177079677581787</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1985030313856099</v>
+        <v>0.1982596253491343</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.001801416277885</v>
+        <v>6.186000630259514</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23689,23 +23689,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03542329370975494</v>
+        <v>0.03702517598867416</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1651546210050583</v>
+        <v>0.1684538871049881</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.05869114398956299</v>
+        <v>0.05978508293628693</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1882107693777244</v>
+        <v>0.1924192713547013</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.001803278923035</v>
+        <v>5.953576788306236</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24974,19 +24974,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07753145694732666</v>
+        <v>0.08650957047939301</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2172932475805283</v>
+        <v>0.2332527786493301</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08572838455438614</v>
+        <v>0.09125317633152008</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2784447107548044</v>
+        <v>0.2941250932501221</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.725080639123917</v>
+        <v>8.704837411642075</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25000,23 +25000,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08822324126958847</v>
+        <v>0.08739044517278671</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2344938218593597</v>
+        <v>0.2331701219081879</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.0920528769493103</v>
+        <v>0.09155137836933136</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2970239742337114</v>
+        <v>0.2956187496976244</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.703835308551788</v>
+        <v>8.701539039611816</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06029302626848221</v>
+        <v>0.05104336887598038</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2077966183423996</v>
+        <v>0.1912171542644501</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07717113941907883</v>
+        <v>0.07108242064714432</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2455463831305243</v>
+        <v>0.2259277957135429</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.392377406358719</v>
+        <v>6.938876211643219</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26311,23 +26311,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05131920054554939</v>
+        <v>0.05704938247799873</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1900133639574051</v>
+        <v>0.2062840312719345</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07083463668823242</v>
+        <v>0.07605654001235962</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2265374153325437</v>
+        <v>0.2388501255557525</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.395414263010025</v>
+        <v>7.474542409181595</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27598,19 +27598,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0289637353271246</v>
+        <v>0.02620796486735344</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1489761173725128</v>
+        <v>0.14236980676651</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.216048076748848</v>
+        <v>0.2022358626127243</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1701873536051507</v>
+        <v>0.1618887422502054</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.90020018815994</v>
+        <v>19.02301609516144</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27624,23 +27624,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0179254338145256</v>
+        <v>0.01927501894533634</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1191477477550507</v>
+        <v>0.1207482814788818</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1689298897981644</v>
+        <v>0.1698730438947678</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1338858984901905</v>
+        <v>0.1388345019990937</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.79734790325165</v>
+        <v>16.20837897062302</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28908,23 +28908,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03632483631372452</v>
+        <v>0.03588717058300972</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1603395491838455</v>
+        <v>0.1609310507774353</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2829635739326477</v>
+        <v>0.2842215597629547</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1905907561077518</v>
+        <v>0.1894390946531621</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.84505867958069</v>
+        <v>23.55582565069199</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28938,23 +28938,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03674349933862686</v>
+        <v>0.032194584608078</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1605233401060104</v>
+        <v>0.1495506316423416</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2862152457237244</v>
+        <v>0.2660133838653564</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1916859393347015</v>
+        <v>0.1794284944151235</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>23.87588024139404</v>
+        <v>22.04962372779846</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30224,19 +30224,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03249134495854378</v>
+        <v>0.0326615534722805</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1562687456607819</v>
+        <v>0.1534373462200165</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2498891353607178</v>
+        <v>0.2452580481767654</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.180253557408845</v>
+        <v>0.1807250770432275</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.00166976451874</v>
+        <v>21.6507226228714</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30250,23 +30250,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03325865790247917</v>
+        <v>0.03183425217866898</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1540208458900452</v>
+        <v>0.1557406783103943</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2488728165626526</v>
+        <v>0.2477792054414749</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1823695640793144</v>
+        <v>0.178421557494236</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.20094895362854</v>
+        <v>21.9492644071579</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window2/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window2/BA11 Overall Model Peformance Results.xlsx
@@ -1736,53 +1736,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02558986097574234</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1323889344930649</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1969750970602036</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1599683124113721</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>18.92083883285522</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.02913377434015274</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1385247558355331</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.2123886793851852</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.1706861867291924</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>20.31550705432892</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.02878423221409321</v>
+        <v>0.02684846334159374</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1394720077514648</v>
+        <v>0.1347143948078156</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2108187675476074</v>
+        <v>0.2012758255004883</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1696591648396667</v>
+        <v>0.1638550070690357</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.22354751825333</v>
+        <v>19.24052536487579</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3051,23 +3051,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2793665826320648</v>
+        <v>0.2480572313070297</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3209866583347321</v>
+        <v>0.3146985769271851</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2051274180412292</v>
+        <v>0.195413663983345</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5285514001798357</v>
+        <v>0.4980534422198382</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>14.01305347681046</v>
+        <v>13.67288827896118</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.266853928565979</v>
+        <v>0.3226577937602997</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3349109292030334</v>
+        <v>0.392916351556778</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2057509869337082</v>
+        <v>0.2308482527732849</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5165790632284462</v>
+        <v>0.5680297472494725</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>14.41512703895569</v>
+        <v>16.41698181629181</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4367,19 +4367,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1480943262577057</v>
+        <v>0.1475514322519302</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2547292709350586</v>
+        <v>0.2609404027462006</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1197675094008446</v>
+        <v>0.1219140663743019</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3848302564218485</v>
+        <v>0.3841242406460835</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.68240776658058</v>
+        <v>10.37738546729088</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4397,19 +4397,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1410402357578278</v>
+        <v>0.1585546582937241</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2562800049781799</v>
+        <v>0.2594700455665588</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1184656620025635</v>
+        <v>0.1211957633495331</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3755532395783955</v>
+        <v>0.3981892242310483</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.89847385883331</v>
+        <v>10.31958684325218</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5675,23 +5675,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06368055939674377</v>
+        <v>0.05049527436494827</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2166567593812943</v>
+        <v>0.1838366389274597</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07951648533344269</v>
+        <v>0.06805390864610672</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2523500731062778</v>
+        <v>0.224711535896465</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.328552752733231</v>
+        <v>6.682039797306061</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5705,23 +5705,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05342794582247734</v>
+        <v>0.04967579245567322</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1766709387302399</v>
+        <v>0.1905791461467743</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.0644649937748909</v>
+        <v>0.06855513155460358</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2311448589574887</v>
+        <v>0.2228806686450694</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>7.447740435600281</v>
+        <v>6.9111667573452</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -6985,23 +6985,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1303910464048386</v>
+        <v>0.09393963217735291</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2817836999893188</v>
+        <v>0.2425580620765686</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.879688262939453</v>
+        <v>1.71569836139679</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3610970041482462</v>
+        <v>0.3064957294602209</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>46.69333100318909</v>
+        <v>42.44223833084106</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7015,23 +7015,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0884099081158638</v>
+        <v>0.1393187791109085</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2412241697311401</v>
+        <v>0.3118612170219421</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.285746216773987</v>
+        <v>1.682620286941528</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2973380367794605</v>
+        <v>0.3732543088979798</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>42.08338856697083</v>
+        <v>55.38173317909241</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8299,19 +8299,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1251299381256104</v>
+        <v>0.09247191995382309</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2848092615604401</v>
+        <v>0.2297918051481247</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.848270297050476</v>
+        <v>1.8912752866745</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3537371031226585</v>
+        <v>0.3040919596994026</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>48.99340569972992</v>
+        <v>41.27581119537354</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8325,23 +8325,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09660483151674271</v>
+        <v/>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2492305189371109</v>
+        <v>3.135566950771307e+25</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.720493793487549</v>
+        <v>1.29441826959516e+26</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3108131778363696</v>
+        <v/>
       </c>
       <c r="P22" s="8" t="n">
-        <v>42.78500080108643</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9609,19 +9609,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08053234219551086</v>
+        <v>0.06801781803369522</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2188825011253357</v>
+        <v>0.1900011301040649</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.754631280899048</v>
+        <v>1.590426206588745</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2837822090891373</v>
+        <v>0.2608022584904034</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>41.57634079456329</v>
+        <v>39.03561234474182</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9635,23 +9635,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0763658881187439</v>
+        <v>0.06904076784849167</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2202041000127792</v>
+        <v>0.1646322160959244</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.754772543907166</v>
+        <v>1.847158074378967</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2763437861048153</v>
+        <v>0.2627560995457416</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>39.41323459148407</v>
+        <v>31.64879083633423</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10915,23 +10915,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7576348185539246</v>
+        <v>1.117150545120239</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7329683899879456</v>
+        <v>0.8289977312088013</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5356085300445557</v>
+        <v>0.780144214630127</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8704222070661597</v>
+        <v>1.056953426183121</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>39.25909698009491</v>
+        <v>42.51789450645447</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10949,19 +10949,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.7603321075439453</v>
+        <v>0.6340600252151489</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5026739239692688</v>
+        <v>0.4364041686058044</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.683340311050415</v>
+        <v>0.6229979395866394</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8719702446436721</v>
+        <v>0.7962788614644677</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.73082935810089</v>
+        <v>21.1571678519249</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12229,19 +12229,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6012844443321228</v>
+        <v>0.7672207355499268</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4241236448287964</v>
+        <v>0.4344656765460968</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5903083086013794</v>
+        <v>0.7027345299720764</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7754253312422305</v>
+        <v>0.8759113742553677</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.06742870807648</v>
+        <v>20.64858675003052</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12255,23 +12255,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6765714883804321</v>
+        <v>0.6529643535614014</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4631957709789276</v>
+        <v>0.3862850368022919</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6531283259391785</v>
+        <v>0.6468465328216553</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8225396576338627</v>
+        <v>0.8080620975899077</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.25051075220108</v>
+        <v>19.11248564720154</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13539,19 +13539,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.9981916546821594</v>
+        <v>0.5686846375465393</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6698644161224365</v>
+        <v>0.3567232191562653</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.488521546125412</v>
+        <v>0.3273674249649048</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9990954182069696</v>
+        <v>0.7541118203201295</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.51204872131348</v>
+        <v>17.79945939779282</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13565,23 +13565,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6926677823066711</v>
+        <v>0.5959664583206177</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4480719268321991</v>
+        <v>0.5831277370452881</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3785127401351929</v>
+        <v>0.36512491106987</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.832266653366979</v>
+        <v>0.77198863872509</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.63674587011337</v>
+        <v>28.98247241973877</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -14611,23 +14611,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03034096583724022</v>
+        <v>0.02767009660601616</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1470701098442078</v>
+        <v>0.1401732265949249</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2148486375808716</v>
+        <v>0.2089361399412155</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1741865834019378</v>
+        <v>0.1663433094717553</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.02384215593338</v>
+        <v>20.01735419034958</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15867,23 +15867,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05289673432707787</v>
+        <v>0.04991273954510689</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1814384460449219</v>
+        <v>0.1746568232774734</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5502780675888062</v>
+        <v>0.5423241853713989</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2299929006014705</v>
+        <v>0.2234115922352886</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>30.07496893405914</v>
+        <v>29.20787036418915</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15897,23 +15897,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05305165797472</v>
+        <v>0.05010469257831573</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.180695965886116</v>
+        <v>0.1768245100975037</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5552529096603394</v>
+        <v>0.540940523147583</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2303294552911546</v>
+        <v>0.2238407750574406</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.12459278106689</v>
+        <v>29.55760061740875</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -16943,23 +16943,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04806936904788017</v>
+        <v>0.04739318788051605</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1774345189332962</v>
+        <v>0.178186446428299</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3763512074947357</v>
+        <v>0.3664966821670532</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2192472783135065</v>
+        <v>0.2176997654581099</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.74716413021088</v>
+        <v>28.23442816734314</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -17965,23 +17965,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06093414500355721</v>
+        <v>0.05622359365224838</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1999149918556213</v>
+        <v>0.1864823848009109</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5883275866508484</v>
+        <v>0.571018397808075</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2468484251591596</v>
+        <v>0.2371151485085851</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>30.49632608890533</v>
+        <v>30.76172173023224</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18987,23 +18987,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05906866118311882</v>
+        <v>0.0549335666000843</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.199844628572464</v>
+        <v>0.191901296377182</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07299162447452545</v>
+        <v>0.06972930580377579</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2430404517423361</v>
+        <v>0.2343791087108326</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.286549359560013</v>
+        <v>6.967493891716003</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20009,23 +20009,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1569834500551224</v>
+        <v>0.1543756127357483</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2670921981334686</v>
+        <v>0.2646827399730682</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1250860095024109</v>
+        <v>0.1241735070943832</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.396211370426345</v>
+        <v>0.3929066208856098</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.65171360969543</v>
+        <v>10.52642837166786</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21031,23 +21031,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2681398689746857</v>
+        <v>0.2751383185386658</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3234645426273346</v>
+        <v>0.3247320652008057</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2048049122095108</v>
+        <v>0.206699013710022</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.517822236848405</v>
+        <v>0.5245362890579314</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.98947387933731</v>
+        <v>13.92877697944641</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22287,23 +22287,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04226412251591682</v>
+        <v>0.04156487435102463</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1640177667140961</v>
+        <v>0.1647074371576309</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3666678667068481</v>
+        <v>0.3666206002235413</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.205582398361136</v>
+        <v>0.203874653527663</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.95390677452087</v>
+        <v>26.16926431655884</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22321,19 +22321,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0429045595228672</v>
+        <v>0.04088138043880463</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1616833209991455</v>
+        <v>0.1631432175636292</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3657195568084717</v>
+        <v>0.3683156371116638</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2071341582715589</v>
+        <v>0.2021914450188351</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.18651986122131</v>
+        <v>25.92253088951111</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -23597,23 +23597,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05269379913806915</v>
+        <v>0.05384209007024765</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.192059338092804</v>
+        <v>0.1953683197498322</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06988801062107086</v>
+        <v>0.07066050916910172</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2295512995782624</v>
+        <v>0.2320389839450424</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.299870252609253</v>
+        <v>7.095120847225189</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23627,23 +23627,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05884315446019173</v>
+        <v>0.05402197688817978</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2038242071866989</v>
+        <v>0.1901849806308746</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.07391665130853653</v>
+        <v>0.06997169554233551</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2425760797362174</v>
+        <v>0.2324262826966429</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>7.305769622325897</v>
+        <v>6.909070909023285</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24912,19 +24912,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2787654101848602</v>
+        <v>0.2534725368022919</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3198097944259644</v>
+        <v>0.297698438167572</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2066579908132553</v>
+        <v>0.195242702960968</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5279823957149142</v>
+        <v>0.5034605613176586</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>14.02672529220581</v>
+        <v>12.96049505472183</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24938,23 +24938,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2737998068332672</v>
+        <v>0.2602879405021667</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3314309418201447</v>
+        <v>0.2956161201000214</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2074807435274124</v>
+        <v>0.1967913508415222</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5232588334975982</v>
+        <v>0.5101842221219378</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.93048316240311</v>
+        <v>12.8711462020874</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26219,23 +26219,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1560487151145935</v>
+        <v>0.1403858661651611</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2734221220016479</v>
+        <v>0.2515881657600403</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1267098486423492</v>
+        <v>0.1183146089315414</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3950300179917894</v>
+        <v>0.3746810192218991</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.73548719286919</v>
+        <v>10.05313694477081</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26253,19 +26253,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1705866307020187</v>
+        <v>0.1590631157159805</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2770913541316986</v>
+        <v>0.2719006538391113</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1305122971534729</v>
+        <v>0.126487523317337</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.413021344124028</v>
+        <v>0.3988271752476009</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.76443642377853</v>
+        <v>10.79104468226433</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -27532,53 +27532,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02817480079829693</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1406096965074539</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2093358784914017</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1678535099373764</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.07676959037781</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.02641348354518414</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1355037689208984</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.2032426595687866</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.1625222555380774</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>20.13784050941467</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.0312223993241787</v>
+        <v>0.02950697205960751</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1482874900102615</v>
+        <v>0.1458735913038254</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2154392004013062</v>
+        <v>0.2152126133441925</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1766986115513608</v>
+        <v>0.1717759356243112</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.0887992978096</v>
+        <v>20.84468156099319</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28846,23 +28846,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05525935813784599</v>
+        <v>0.05554593354463577</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1832725554704666</v>
+        <v>0.1851534098386765</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5653179883956909</v>
+        <v>0.5766860246658325</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2350730910543485</v>
+        <v>0.2356818481441364</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>30.14949262142181</v>
+        <v>30.53596317768097</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28876,23 +28876,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05367078259587288</v>
+        <v>0.05390496179461479</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.18153116106987</v>
+        <v>0.1816529184579849</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5560489892959595</v>
+        <v>0.5578144788742065</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2316695547452726</v>
+        <v>0.2321744210601478</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.03430366516113</v>
+        <v>30.15654385089874</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30158,23 +30158,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04161088168621063</v>
+        <v>0.04301659762859344</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1638941317796707</v>
+        <v>0.1649955958127975</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.369904488325119</v>
+        <v>0.3735940754413605</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2039874547275166</v>
+        <v>0.2074044301084079</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.03089511394501</v>
+        <v>26.12726390361786</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30188,23 +30188,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04255864769220352</v>
+        <v>0.04173846170306206</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1674090921878815</v>
+        <v>0.1641358733177185</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.373659074306488</v>
+        <v>0.3680821657180786</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2062974737901643</v>
+        <v>0.2042999307465914</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.17867588996887</v>
+        <v>26.07629895210266</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window2/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window2/BA11 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04013377971308677</v>
+        <v>0.01823367709200173</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1765909113985987</v>
+        <v>0.1113384139636941</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.253444189684931</v>
+        <v>0.1858110961109033</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2003341701085633</v>
+        <v>0.1350321335534684</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.28024968208252</v>
+        <v>21.6713779462183</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0258335205584427</v>
+        <v>0.0212262341641864</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1450452969345188</v>
+        <v>0.1252690533788271</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2103740095220688</v>
+        <v>0.2067678888468094</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.160728095112344</v>
+        <v>0.1456922584222868</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>24.13098328090337</v>
+        <v>21.16267811954738</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -1158,53 +1158,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.00898605362239791</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.07489547114541019</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1367359330518117</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.09479479744373058</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>13.78829808443339</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.02061920317897045</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.115638898524872</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.1540831205517132</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.1435938828048411</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>17.04902302240803</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.01363413596151771</v>
+        <v>0.01025529197187646</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.09507203496361528</v>
+        <v>0.08488356448641846</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1293520876093035</v>
+        <v>0.1530851413738255</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1167653029008092</v>
+        <v>0.1012684154703551</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>13.99588129861773</v>
+        <v>14.97133552673972</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -1220,23 +1220,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1553557703400491</v>
+        <v>0.01812793385517234</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2714937838947279</v>
+        <v>0.1016937860252156</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3491939744911818</v>
+        <v>0.223373459505589</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3941519635115993</v>
+        <v>0.1346400158020354</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>47.61333881052487</v>
+        <v>17.16887498946448</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -1250,23 +1250,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.126677745722433</v>
+        <v>0.02147144646404762</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3011636687993314</v>
+        <v>0.1156408363388425</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4123341234690375</v>
+        <v>0.2055081263050803</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3559181727903662</v>
+        <v>0.1465313838877106</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>48.01488789374195</v>
+        <v>19.29136313467047</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -1282,23 +1282,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01992067008968109</v>
+        <v>0.01540985713112889</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1067637016867815</v>
+        <v>0.06792421882116252</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1391444892997324</v>
+        <v>0.09277769660423747</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1411406039723548</v>
+        <v>0.1241364456198456</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>15.09478128680085</v>
+        <v>10.20984748324683</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -1312,23 +1312,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.02404515690019319</v>
+        <v>0.01778761857560822</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1179800367574783</v>
+        <v>0.1065453828210261</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1497984438844716</v>
+        <v>0.2426345694534042</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.1550650086260378</v>
+        <v>0.1333702312197449</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>16.19943776689008</v>
+        <v>21.18374008248361</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -2085,19 +2085,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>6.657316089017456e-07</v>
+        <v>0.5205598949526041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0006366240890465609</v>
+        <v>0.5844716161453264</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0002809603274548841</v>
+        <v>0.3003114294876219</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0008159237764042335</v>
+        <v>0.7214983679486767</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.02809044448080371</v>
+        <v>23.45641043410164</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -2115,19 +2115,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>5.936094272306802e-07</v>
+        <v>0.4233247059009432</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.000617791265769529</v>
+        <v>0.5229849288357261</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0002863792901531191</v>
+        <v>0.2765261391738462</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0007704605293139164</v>
+        <v>0.6506340798797302</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.02862922458849905</v>
+        <v>21.67500643415202</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8554616616626499</v>
+        <v>0.9706648629549278</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7362438579093024</v>
+        <v>0.8535895720590964</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.301356471496377</v>
+        <v>0.3987707772554671</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9249117047927602</v>
+        <v>0.9852232553867818</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>35.0372510756816</v>
+        <v>40.47811463160753</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -2503,23 +2503,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.042277896782832</v>
+        <v>0.7073893237697826</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.831754019554262</v>
+        <v>0.7321917778849417</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3318867253619764</v>
+        <v>0.3380524022669986</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.020920122626071</v>
+        <v>0.8410643992999481</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>41.17224425811697</v>
+        <v>33.98018953087357</v>
       </c>
     </row>
     <row r="14">
@@ -2539,19 +2539,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.082036019702415</v>
+        <v>2.413716690946836</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.160616433586375</v>
+        <v>1.348806720497827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5360210675248666</v>
+        <v>0.6414374412103029</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.442926200365914</v>
+        <v>1.553614074005136</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>56.74539941719001</v>
+        <v>75.56113358467911</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2565,23 +2565,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.8681970357677352</v>
+        <v>0.6822428692539063</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.8195636361931472</v>
+        <v>0.67645370060229</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3944972655031734</v>
+        <v>0.3723412926432652</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.9317709137807078</v>
+        <v>0.825979944825482</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>34.01184812087521</v>
+        <v>30.31699249706734</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2597,23 +2597,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2610999236534355</v>
+        <v>0.3854144187599767</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4443350089634933</v>
+        <v>0.4781299639005587</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2102012016701212</v>
+        <v>0.2931105743634812</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5109793769355427</v>
+        <v>0.6208175406349088</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.10371756220558</v>
+        <v>21.23382294298255</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.3274495151550965</v>
+        <v>0.3803861661594811</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.4504557722938005</v>
+        <v>0.4913341846687307</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2320295219858411</v>
+        <v>0.2919094885540841</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.5722320465991891</v>
+        <v>0.6167545428770518</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>19.05058053565294</v>
+        <v>21.86890164019822</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -3397,19 +3397,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.106157101634838e-07</v>
+        <v>0.2859501007552403</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0002800858585860951</v>
+        <v>0.4728235999009254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0001116599322023858</v>
+        <v>0.2210758062669138</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0003325894017606151</v>
+        <v>0.5347430231010408</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01116531596755852</v>
+        <v>19.29339565069456</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3427,19 +3427,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>9.006054712789847e-08</v>
+        <v>0.2084554443553984</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0002490674116670008</v>
+        <v>0.3890964858270615</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001017542298626693</v>
+        <v>0.1705029931315572</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0003001008949135248</v>
+        <v>0.4565692109148386</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01017473235919973</v>
+        <v>15.86071230940146</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3785,23 +3785,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4874908987169001</v>
+        <v>0.6905502466677667</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6334938335079747</v>
+        <v>0.7013379779491457</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2362706168421813</v>
+        <v>0.3034578735650881</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6982054845938265</v>
+        <v>0.830993529859148</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.67329916954014</v>
+        <v>31.6846747335066</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -3815,23 +3815,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.3163236553508835</v>
+        <v>0.9381819671365886</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.4912617339449671</v>
+        <v>0.7666299304378046</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1787583835280962</v>
+        <v>0.307724167923404</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.5624265777422716</v>
+        <v>0.9685979388459324</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>20.19662778031858</v>
+        <v>36.03086912103107</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3847,53 +3847,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.7557793706367362</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.7160162898157351</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3678760482052781</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.8693557215758899</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>30.0757860038874</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.3711197108090089</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.5582253575429657</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.2143780073694503</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.6091959543603428</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>23.18625052149395</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.8187631465432532</v>
+        <v>0.5075275440470426</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.808360335136744</v>
+        <v>0.5539426031221926</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3203640350417885</v>
+        <v>0.2753895064255893</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.9048553180167829</v>
+        <v>0.7124096743075873</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>33.33451229552573</v>
+        <v>23.96337877689817</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3913,19 +3913,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2362943093318152</v>
+        <v>0.3096951637602127</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4113691275712151</v>
+        <v>0.4461153006652409</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1605252921756595</v>
+        <v>0.2319079335780393</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4861011307658265</v>
+        <v>0.5565026179275464</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>16.41191282705673</v>
+        <v>19.17331554468397</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -3943,19 +3943,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.221525429794434</v>
+        <v>0.3476754217010841</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3864046077054958</v>
+        <v>0.4652905168254413</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1552825427227548</v>
+        <v>0.2473981281517493</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.4706648805619918</v>
+        <v>0.5896400780994149</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>15.40601363506449</v>
+        <v>19.8908290773709</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -4709,19 +4709,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.935730032276824e-08</v>
+        <v>0.09734967219747827</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0001684037564218717</v>
+        <v>0.2273687754975963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.999019545054513e-05</v>
+        <v>0.09397365984696576</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0002221650294775671</v>
+        <v>0.3120090899276466</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.005999170534396135</v>
+        <v>9.130002067934392</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4739,19 +4739,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>5.662069483622516e-08</v>
+        <v>0.1025289844650881</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0001758697266273038</v>
+        <v>0.234644442132233</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>6.429463981884144e-05</v>
+        <v>0.09361511018034965</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0002379510345348916</v>
+        <v>0.3202014748015506</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.006429733170968918</v>
+        <v>9.48001835634579</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -5101,19 +5101,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6653384465270461</v>
+        <v>0.6241644466490385</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7333508454972635</v>
+        <v>0.6954023189833557</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.262269662349037</v>
+        <v>0.2596343863303837</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8156828099984982</v>
+        <v>0.7900407879654306</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>31.41991859432951</v>
+        <v>29.77139662260279</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5127,23 +5127,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5179684684792027</v>
+        <v>1.043566465863067</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.6149776344501243</v>
+        <v>0.8866603028804262</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.21661106577027</v>
+        <v>0.3218071669799093</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7197002629422909</v>
+        <v>1.021551009917306</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>25.41380587112264</v>
+        <v>40.70355695183827</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5163,19 +5163,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.840619286973586e-06</v>
+        <v>0.8529067650063441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001099555014638209</v>
+        <v>0.8057811151500655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0003797115121071513</v>
+        <v>0.3145546875249593</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.001356694249627965</v>
+        <v>0.923529514962215</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03798162966522754</v>
+        <v>34.88813283798792</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -5193,19 +5193,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.01750727338447727</v>
+        <v>0.5708185909167419</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1155047591091947</v>
+        <v>0.6609265100913421</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.04075066075043859</v>
+        <v>0.2643186119438822</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1323150535066863</v>
+        <v>0.75552537410516</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>4.141451631016062</v>
+        <v>27.70922682788233</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -5225,19 +5225,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3226273918934252</v>
+        <v>0.2510087009423768</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5083370050917533</v>
+        <v>0.4082077188974131</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1770229236937162</v>
+        <v>0.1685634748763067</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5680029858138292</v>
+        <v>0.5010076855122851</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.82451134258244</v>
+        <v>16.53835737442771</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -5255,19 +5255,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1705604340954646</v>
+        <v>0.3323353298271838</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3455307933326323</v>
+        <v>0.5132897187544391</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1193401749352934</v>
+        <v>0.2056846489864392</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.4129896295253243</v>
+        <v>0.5764853249018432</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>12.94066717325054</v>
+        <v>21.03628734865409</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -6019,19 +6019,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0585489643538261</v>
+        <v>0.03328822924841202</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1504337584544821</v>
+        <v>0.133292192381279</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.563736616924342</v>
+        <v>0.2408819308042618</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2419689326211655</v>
+        <v>0.1824506213977141</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.0685929983906</v>
+        <v>21.95128632165265</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -6049,19 +6049,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06062813976968671</v>
+        <v>0.03320257110681242</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1577757013446735</v>
+        <v>0.1331545264998252</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.547082418582096</v>
+        <v>0.2401594615950722</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2462278208685743</v>
+        <v>0.1822157268372091</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>31.2380783057671</v>
+        <v>21.9357205343364</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6407,23 +6407,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05239773743067454</v>
+        <v>0.01625897954646119</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.147724835288517</v>
+        <v>0.09859469077560844</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.480488551401143</v>
+        <v>0.2033328411689492</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2289055207518476</v>
+        <v>0.1275107036544822</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>30.36474456184222</v>
+        <v>16.81750678408069</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6437,23 +6437,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05303339742865416</v>
+        <v>0.01359572333445577</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1497846637544888</v>
+        <v>0.09467818758602728</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.471463815256967</v>
+        <v>0.2018254466482401</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2302898118212227</v>
+        <v>0.1166007004029383</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>30.66673472526134</v>
+        <v>16.34182970307956</v>
       </c>
     </row>
     <row r="14">
@@ -6473,19 +6473,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06373133453222532</v>
+        <v>0.04160251041042203</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1835692148826776</v>
+        <v>0.1559860566514415</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.536952412409611</v>
+        <v>0.3190920616198284</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2524506576189203</v>
+        <v>0.2039669346007387</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>36.02457604585157</v>
+        <v>26.62290071929348</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6499,23 +6499,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.08002992920840604</v>
+        <v>0.03217049066945985</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2196914083719862</v>
+        <v>0.1492511988007058</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.62084074604504</v>
+        <v>0.3069226379247995</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2828956153926852</v>
+        <v>0.1793613410672987</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>40.45426062776902</v>
+        <v>24.97838297336511</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6535,19 +6535,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0597735844314605</v>
+        <v>0.04289904446183003</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1789523751676858</v>
+        <v>0.1560444851892259</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.538562353872978</v>
+        <v>0.297326969536516</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2444863686005019</v>
+        <v>0.2071208450683562</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>35.13697735487768</v>
+        <v>27.10015171275581</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -6561,23 +6561,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.06629671029253757</v>
+        <v>0.05131016354597449</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1746452707027393</v>
+        <v>0.1668184608948385</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.617664623442309</v>
+        <v>0.2884027169858256</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2574814756298743</v>
+        <v>0.2265174685227929</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>33.71293930298705</v>
+        <v>28.72690783311106</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -7329,19 +7329,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06533963309697408</v>
+        <v>0.01714669457030997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1981818339094041</v>
+        <v>0.09894333641069711</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.614330213112577</v>
+        <v>0.2098607934224581</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2556161831672128</v>
+        <v>0.1309453877397366</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>38.15198557241477</v>
+        <v>17.91330747396481</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7359,19 +7359,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06560553855047008</v>
+        <v>0.01865326485376304</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1985001023658516</v>
+        <v>0.1047710587169278</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.619027979719125</v>
+        <v>0.1992182989834838</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2561357814723864</v>
+        <v>0.1365769557932927</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>38.18203891683633</v>
+        <v>18.35029741831979</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -7717,23 +7717,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0684625589685162</v>
+        <v>0.009537267442660107</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2027612016384219</v>
+        <v>0.07649372938845331</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.638768774221303</v>
+        <v>0.1763863083299994</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2616535093755026</v>
+        <v>0.0976589342695286</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>38.70169925328647</v>
+        <v>14.87129345464954</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7747,23 +7747,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06724209179590256</v>
+        <v>0.008568364649738798</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2016819568557996</v>
+        <v>0.07306020755344118</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.651545647125465</v>
+        <v>0.1499109781074865</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2593108015411286</v>
+        <v>0.09256546142994587</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>38.57402184639984</v>
+        <v>13.76290760119684</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7779,23 +7779,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08315471487003338</v>
+        <v>0.02211727466653764</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2327420647248215</v>
+        <v>0.1101631210424844</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.575387933769977</v>
+        <v>0.3414747665294016</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2883655923823669</v>
+        <v>0.1487187771148541</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>43.61345538882354</v>
+        <v>20.4262707392045</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7809,23 +7809,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.08972651171007877</v>
+        <v>0.02815162813304437</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2399090718243688</v>
+        <v>0.1256628200697058</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.668467260522615</v>
+        <v>0.3476305222415611</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2995438393792781</v>
+        <v>0.1677844692843899</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>43.94745947293549</v>
+        <v>22.71820225055709</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7841,23 +7841,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.069282023648036</v>
+        <v>0.01405953278846054</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2066823902805146</v>
+        <v>0.08143036251415167</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.647302055043117</v>
+        <v>0.2231792119724687</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2632147861500869</v>
+        <v>0.1185729007339389</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>39.22953096659722</v>
+        <v>16.25887982549283</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -7871,23 +7871,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.069282023648036</v>
+        <v>0.02920068508552322</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2066823902805146</v>
+        <v>0.1286159476299044</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.647302055043117</v>
+        <v>0.2558831082700058</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2632147861500869</v>
+        <v>0.1708820794744821</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>39.22953096659722</v>
+        <v>22.05130164813958</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -8328,18 +8328,14 @@
           <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="L22" s="8" t="n">
-        <v/>
-      </c>
+      <c r="L22" s="8" t="n"/>
       <c r="M22" s="8" t="n">
         <v>3.135566950771307e+25</v>
       </c>
       <c r="N22" s="8" t="n">
         <v>1.29441826959516e+26</v>
       </c>
-      <c r="O22" s="8" t="n">
-        <v/>
-      </c>
+      <c r="O22" s="8" t="n"/>
       <c r="P22" s="8" t="n">
         <v>200</v>
       </c>
@@ -8639,19 +8635,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05982650818473094</v>
+        <v>0.02547369905519017</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1821038539522136</v>
+        <v>0.1208583216025719</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.620863877854109</v>
+        <v>0.3460361511512043</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2445945792218849</v>
+        <v>0.1596048215286436</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>35.10461296013558</v>
+        <v>22.09782520332291</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8669,19 +8665,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05417097538104725</v>
+        <v>0.02553034242317739</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1574962708521271</v>
+        <v>0.1210577337975938</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.610449190214873</v>
+        <v>0.3470733150834005</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2327465904821105</v>
+        <v>0.1597821717939063</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>31.49818256875865</v>
+        <v>22.14286316154944</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9027,23 +9023,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04952995686279477</v>
+        <v>0.01489384359208613</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1624592549256533</v>
+        <v>0.09334732478571107</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.549333924888908</v>
+        <v>0.3027397163005588</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2225532674727441</v>
+        <v>0.1220403359225389</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>32.66643610770479</v>
+        <v>18.99425590313843</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9057,23 +9053,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05524857250095484</v>
+        <v>0.01592122614406235</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1616579110993048</v>
+        <v>0.09688776266834105</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.680838386825721</v>
+        <v>0.3088877313365635</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2350501489064724</v>
+        <v>0.1261793411936453</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>32.20264943320063</v>
+        <v>19.55842688202072</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9089,23 +9085,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08980679218101073</v>
+        <v>0.08720777333870787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2383088910839852</v>
+        <v>0.2346450827318581</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.74904368258196</v>
+        <v>0.8818254885047591</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.299677813961946</v>
+        <v>0.2953096228345901</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>42.96231467466968</v>
+        <v>36.56560138058346</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9123,19 +9119,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06157623596087547</v>
+        <v>0.08818818709545879</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1741182694024899</v>
+        <v>0.2366522082897248</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.724194332751933</v>
+        <v>0.8839253714526837</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2481455942806067</v>
+        <v>0.2969649593730863</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>33.66082148404238</v>
+        <v>36.75073555756564</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9151,23 +9147,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06373412922475681</v>
+        <v>0.06064513205659805</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1717693805465862</v>
+        <v>0.1971581782670922</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.705001331974703</v>
+        <v>0.6198237398719608</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2524561926845068</v>
+        <v>0.2462623236644169</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>34.01586476152833</v>
+        <v>34.950675367164</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -9181,23 +9177,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.05584016101190994</v>
+        <v>0.06064513205659805</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1562686528473034</v>
+        <v>0.1971581782670922</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.647756346525456</v>
+        <v>0.6198237398719608</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2363052284904207</v>
+        <v>0.2462623236644169</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>31.73739385350515</v>
+        <v>34.950675367164</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -9949,19 +9945,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6409578441700228</v>
+        <v>0.2077036172361615</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3784147080785781</v>
+        <v>0.4108670498650314</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6128064460613207</v>
+        <v>0.1700841375680838</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8005984287831339</v>
+        <v>0.4557451231073806</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>18.9265252526226</v>
+        <v>16.69700200816977</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9979,19 +9975,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.6409591119778916</v>
+        <v>0.1859141644153887</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.37842063865383</v>
+        <v>0.3826329010297137</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6128067459754239</v>
+        <v>0.1565909293590864</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.8005992205703748</v>
+        <v>0.431177648325361</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>18.92674032005259</v>
+        <v>15.66444855005292</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -10337,23 +10333,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6125460079309865</v>
+        <v>0.1141113954164414</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3771077282121402</v>
+        <v>0.2558389109229585</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5997051644053244</v>
+        <v>0.1159668946929609</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7826531849618875</v>
+        <v>0.3378037824187902</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>19.02895143756001</v>
+        <v>10.68082095159657</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10367,23 +10363,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6125779007817931</v>
+        <v>0.1036327291544642</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3771709551149952</v>
+        <v>0.243405381144674</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5997257609095743</v>
+        <v>0.1047235643611145</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7826735595264434</v>
+        <v>0.3219203770413799</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>19.03126042730517</v>
+        <v>10.53292026172928</v>
       </c>
     </row>
     <row r="14">
@@ -10399,23 +10395,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6763649350515083</v>
+        <v>1.367293370398022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4079559110146901</v>
+        <v>0.7842374006678913</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6337149351299227</v>
+        <v>0.3088845035018829</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8224140897695688</v>
+        <v>1.169313204576952</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>19.90845328518005</v>
+        <v>42.92351069635618</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10429,23 +10425,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.670753471200298</v>
+        <v>0.1120640013550456</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.4060916885612063</v>
+        <v>0.2029321174696582</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6313644066278878</v>
+        <v>0.1048173586522687</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8189954036502879</v>
+        <v>0.3347596172704312</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>19.85632837515633</v>
+        <v>8.54448960649475</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10461,23 +10457,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.620240824586037</v>
+        <v>0.1764738230910339</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3899528588428665</v>
+        <v>0.3349702854360971</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5945365024931535</v>
+        <v>0.1430080229367255</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7875536963192015</v>
+        <v>0.4200878754392156</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.47941485530625</v>
+        <v>13.57708586297161</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -10491,23 +10487,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.6202493722550677</v>
+        <v>0.1759437206441331</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3900636459926877</v>
+        <v>0.3444657582438686</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.5945759719051726</v>
+        <v>0.144606595512816</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7875591230219277</v>
+        <v>0.4194564585795922</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>19.48341661128927</v>
+        <v>13.96968879854217</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -11259,19 +11255,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4989948567887985</v>
+        <v>0.1685579171135082</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3240180518160452</v>
+        <v>0.3152388439443612</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5590910455497772</v>
+        <v>0.1519888803879591</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7063956800468123</v>
+        <v>0.4105580557162509</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>17.02653389462206</v>
+        <v>13.83022413562954</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11289,19 +11285,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.510405363526817</v>
+        <v>0.1726834243243797</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3061478396355368</v>
+        <v>0.3178342617789632</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5663692692732857</v>
+        <v>0.1514838330845064</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.71442659771793</v>
+        <v>0.4155519514144768</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>16.33352164143147</v>
+        <v>13.96330090606141</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -11647,23 +11643,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4874370777475975</v>
+        <v>0.1249701375805736</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2877321338146063</v>
+        <v>0.2368994643033308</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5387593932815522</v>
+        <v>0.134836353039414</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6981669411735258</v>
+        <v>0.3535111562321246</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.55847356116951</v>
+        <v>10.9196690487355</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -11677,23 +11673,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.4935597793225935</v>
+        <v>0.1511091835143993</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2829334190634643</v>
+        <v>0.2540656299102608</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5588649386635517</v>
+        <v>0.1385040019948837</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7025380981289154</v>
+        <v>0.3887276469642973</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>15.37498608636262</v>
+        <v>11.61935370162671</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -11709,53 +11705,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.114455913133608</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.770395328200268</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3918159030212619</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.055677940062028</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>36.31213527466156</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.4793771133372543</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.2965198832575792</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.5357926260323025</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.6923706473683401</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>16.03066934470132</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.5366906785161305</v>
+        <v>0.202403582184094</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.313041837543528</v>
+        <v>0.2573614720024269</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5819023651453337</v>
+        <v>0.1772125204825935</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7325917543326095</v>
+        <v>0.4498928563381442</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>16.76876395760205</v>
+        <v>11.65094547549961</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11771,23 +11767,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5207699604235806</v>
+        <v>0.235571336845303</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3311051765103966</v>
+        <v>0.3687170816546488</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5455236040744047</v>
+        <v>0.1983003015456746</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7216439291115672</v>
+        <v>0.485356916964519</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>17.47202596216135</v>
+        <v>16.01253130058662</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -11801,23 +11797,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.5847704935925458</v>
+        <v>0.243321643653705</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3523552657111568</v>
+        <v>0.3665269093352033</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6295522453746827</v>
+        <v>0.2031991551185933</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.764702879288777</v>
+        <v>0.4932764373591191</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>18.13899274631974</v>
+        <v>15.8735327471123</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -12569,19 +12565,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4311107554624221</v>
+        <v>0.2545472828628955</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3228374115895111</v>
+        <v>0.3831238502283855</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2780952933198894</v>
+        <v>0.2083091655693797</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.656590249289785</v>
+        <v>0.5045267910259034</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.68838113885283</v>
+        <v>17.17986123254643</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12599,19 +12595,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.4523736129680387</v>
+        <v>0.2589304642013341</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3407161193180728</v>
+        <v>0.3854989936486978</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2898386750359591</v>
+        <v>0.2106025992208868</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.6725872530520027</v>
+        <v>0.5088521044481727</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>17.43279782743416</v>
+        <v>17.27241053452087</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12957,53 +12953,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1959414988282627</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2945709352140319</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1684108103644666</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.4426527971540027</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>14.29521915075702</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.4297497739767338</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.2622301348060922</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.2568222736977658</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.6555530291110963</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>14.01298085559051</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.4309633851583357</v>
+        <v>0.1996749916273647</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2615491230577069</v>
+        <v>0.2949763737349688</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.255156934410369</v>
+        <v>0.1744398550173322</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.6564780157464039</v>
+        <v>0.4468500773496237</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>14.01603117774219</v>
+        <v>14.35993796975063</v>
       </c>
     </row>
     <row r="14">
@@ -13023,19 +13019,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4620405358467248</v>
+        <v>0.3650150287497386</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3099744792126155</v>
+        <v>0.4512182405935363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2814825272112323</v>
+        <v>0.2734028295894748</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6797356367344034</v>
+        <v>0.6041647364334819</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15.99490344953501</v>
+        <v>20.57167181234571</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13049,23 +13045,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6041152898568851</v>
+        <v>0.3029016107204148</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3745876136675506</v>
+        <v>0.3467218616326913</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3325234153024137</v>
+        <v>0.2522551185198857</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7772485380217097</v>
+        <v>0.550364979554854</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>18.48605938464332</v>
+        <v>15.83591492286554</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -13081,23 +13077,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5455977286861731</v>
+        <v>0.2585225340773728</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3863761847332042</v>
+        <v>0.3807804712479303</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3280872626279574</v>
+        <v>0.2310720938831125</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7386458750214294</v>
+        <v>0.5084511127703162</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.9467458878866</v>
+        <v>17.4572791644533</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -13111,23 +13107,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.5086559264352695</v>
+        <v>0.2878189377611152</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3162785065259188</v>
+        <v>0.4155994029593892</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2903495371934222</v>
+        <v>0.242676105736231</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7132011823008074</v>
+        <v>0.5364875932965414</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>16.08364106469096</v>
+        <v>18.86616074995922</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -13879,19 +13875,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1357200749464784</v>
+        <v>0.03582612796576491</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2762345214070315</v>
+        <v>0.1699008593776943</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4198577276960171</v>
+        <v>0.2776390951848325</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3684020561105468</v>
+        <v>0.1892779119859603</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>40.06765138804796</v>
+        <v>26.09028767017514</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14177,23 +14173,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04245271744265806</v>
+        <v>0.01152404783275521</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1735571114464515</v>
+        <v>0.09040360194029091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2499485496879179</v>
+        <v>0.1946058160377381</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2060405723217106</v>
+        <v>0.1073501179913427</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.21012384639788</v>
+        <v>15.62819580326765</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -14225,19 +14221,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01203266941476821</v>
+        <v>0.01045407190688437</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0809597985350516</v>
+        <v>0.06961478737984719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.111521354380044</v>
+        <v>0.168438313697642</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1096935249445846</v>
+        <v>0.1022451559091401</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.55579356372299</v>
+        <v>12.45983239974558</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -14265,23 +14261,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03420387782724862</v>
+        <v>0.02042338301145754</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1431814506666847</v>
+        <v>0.105221689901953</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1862699610014123</v>
+        <v>0.2781951362087372</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1849429042360063</v>
+        <v>0.1429104020407806</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>21.11439084353335</v>
+        <v>18.07294301928019</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -14901,19 +14897,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03453163449567629</v>
+        <v>0.03571598532387035</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1555163764795248</v>
+        <v>0.142727236602376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3176912643493772</v>
+        <v>0.2729881918835373</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1858268938977249</v>
+        <v>0.1889867331954028</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>27.23486374584008</v>
+        <v>24.88403632791844</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14931,19 +14927,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03273183217864818</v>
+        <v>0.03495087920988398</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1496102370682928</v>
+        <v>0.1389435509288068</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3141920619635196</v>
+        <v>0.2683559930019282</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.180919407965669</v>
+        <v>0.1869515424110857</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>26.30008287814768</v>
+        <v>24.24010364541187</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -15289,23 +15285,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02608969341738513</v>
+        <v>0.01628732133419671</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1300037993479323</v>
+        <v>0.0966760320686537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3452742189558127</v>
+        <v>0.1866358163977206</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.161523042991968</v>
+        <v>0.1276217902013473</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>22.80080772343004</v>
+        <v>17.10200901458285</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -15319,23 +15315,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02588101106851629</v>
+        <v>0.01646794704743392</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1288117138613507</v>
+        <v>0.0980508424008905</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.348963375506684</v>
+        <v>0.1884448742846324</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1608757628374029</v>
+        <v>0.1283274991863939</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>22.90249875432692</v>
+        <v>17.49190624876972</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -15355,19 +15351,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03960639168117325</v>
+        <v>0.04606022563668847</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1530186513025285</v>
+        <v>0.1683064194375337</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4140367520386905</v>
+        <v>0.4421224230031759</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1990135464765483</v>
+        <v>0.2146164617094608</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>26.31958824631906</v>
+        <v>30.70348883801557</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15385,19 +15381,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.0361050729074457</v>
+        <v>0.07023419152642237</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1490420324648992</v>
+        <v>0.2139285442748294</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3898896047117373</v>
+        <v>0.6401730958808333</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1900133492874795</v>
+        <v>0.2650173419352446</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.79250440142166</v>
+        <v>37.79643755098672</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -15413,23 +15409,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02358595546962176</v>
+        <v>0.03039205266524922</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1202975834822276</v>
+        <v>0.1343728803028309</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3025074651125688</v>
+        <v>0.404861762277923</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1535771971017239</v>
+        <v>0.1743331657064978</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>21.51298119571894</v>
+        <v>25.66456370254273</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -15443,23 +15439,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.02596310158804464</v>
+        <v>0.04731253219664713</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1206899670414745</v>
+        <v>0.1549899583662105</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3457192687108969</v>
+        <v>0.3626255140704469</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.1611306972244725</v>
+        <v>0.2175144413519413</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>21.52050331156231</v>
+        <v>29.51038174549037</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -16211,19 +16207,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2707010536202166</v>
+        <v>0.1742379712325991</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4282595712591148</v>
+        <v>0.3433564145918377</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6630355071055346</v>
+        <v>0.6869408668615316</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5202893941069879</v>
+        <v>0.4174182210117319</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>78.97475010663268</v>
+        <v>82.67719188672588</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -16513,19 +16509,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.08455987457048406</v>
+        <v>0.04520199508134082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2377493852347353</v>
+        <v>0.1592518535788044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4076139571417075</v>
+        <v>0.277617034866146</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2907918062299625</v>
+        <v>0.2126076082395473</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>39.92679110241822</v>
+        <v>28.89460678256838</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -16553,23 +16549,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08020423878727953</v>
+        <v>0.04461018062653996</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2120204703746846</v>
+        <v>0.1550309735183561</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3930595633666671</v>
+        <v>0.4345297186018682</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2832035289103572</v>
+        <v>0.2112112227760162</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>35.27676263253187</v>
+        <v>27.52051804069734</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -16597,23 +16593,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05976724545655956</v>
+        <v>0.05157102486245422</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1934404596921231</v>
+        <v>0.1811416735189567</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3424747138272725</v>
+        <v>0.4979663056785693</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2444734043951603</v>
+        <v>0.2270925469108447</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>31.50264450580593</v>
+        <v>31.42641404056277</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -17233,19 +17229,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.261798357621153</v>
+        <v>0.8115727323994708</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.545981378406001</v>
+        <v>0.7003065887187521</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.454039263522625</v>
+        <v>1.78708613581284</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>2.293861015323543</v>
+        <v>0.900873316509858</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>111.0350009936198</v>
+        <v>97.7320353277011</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17531,23 +17527,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6453265942754173</v>
+        <v>0.1097875422640571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5934116075065233</v>
+        <v>0.2680483214909083</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.067248642888109</v>
+        <v>0.5658646280573214</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8033222231927966</v>
+        <v>0.331342032142101</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>79.78219375509667</v>
+        <v>51.051179939802</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -17579,19 +17575,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05638022945451865</v>
+        <v>0.03243585379604842</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1915145726028762</v>
+        <v>0.1451007064571006</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5450511029378764</v>
+        <v>0.3243777580221278</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2374452135851945</v>
+        <v>0.180099566340534</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>31.58978138297257</v>
+        <v>29.20104058131634</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -17623,19 +17619,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05203225424249499</v>
+        <v>0.03822357094105623</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1776171154806623</v>
+        <v>0.1629131546349866</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4722878259485336</v>
+        <v>0.4384410271932205</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2281057961615509</v>
+        <v>0.1955084932708966</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>30.6884674277964</v>
+        <v>30.21015703451586</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -18255,19 +18251,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.411499133476325</v>
+        <v>3.847583957826154</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9969020456077008</v>
+        <v>1.640662861074362</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3717921286784316</v>
+        <v>0.6670697450974531</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.188065290073035</v>
+        <v>1.961525925861332</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>39.87150844420502</v>
+        <v>87.73124803811993</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18553,23 +18549,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.441680583531078</v>
+        <v>0.9511638143784783</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5532081803402884</v>
+        <v>0.798309598138732</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2042043096426209</v>
+        <v>0.3196493655950637</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6645905382497391</v>
+        <v>0.9752762759231244</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.50486664720259</v>
+        <v>38.25741494123845</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -18597,23 +18593,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06196416313458827</v>
+        <v>0.5895923554066885</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1939492512535947</v>
+        <v>0.4893574411738057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07026415422668218</v>
+        <v>0.2060897393094429</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2489260194005204</v>
+        <v>0.7678491749078646</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.0248931815971</v>
+        <v>21.93572292166885</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -18641,23 +18637,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5188602587888257</v>
+        <v>0.2413831232780403</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5621528105094237</v>
+        <v>0.4160750385897815</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1997524864077492</v>
+        <v>0.1720263019992127</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7203195532462142</v>
+        <v>0.4913075648491892</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>23.844742990343</v>
+        <v>16.88045192031663</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -19277,19 +19273,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.292202107244362</v>
+        <v>1.901136857069286</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.317806767841799</v>
+        <v>1.236417109160637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4941589558865436</v>
+        <v>0.555797157954994</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.814442643690994</v>
+        <v>1.378817194942566</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>42.55044220587806</v>
+        <v>61.61359428565748</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -19575,23 +19571,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.420996652305161</v>
+        <v>0.9046676779639776</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.534337525034205</v>
+        <v>0.7636525665175502</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2053382286320416</v>
+        <v>0.3227952927899654</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6488425481618487</v>
+        <v>0.9511401989002345</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>19.61800386689782</v>
+        <v>41.71430527427917</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -19623,19 +19619,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09070611865218253</v>
+        <v>0.2381068877204788</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2046413727828948</v>
+        <v>0.2756943091671824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09547608999130985</v>
+        <v>0.19406413730623</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3011745650817521</v>
+        <v>0.48796197364188</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>8.358634635272269</v>
+        <v>12.32423782528414</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -19663,23 +19659,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2322207260414492</v>
+        <v>0.4009795394638229</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3902974677054113</v>
+        <v>0.5008307710173212</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1550086190030864</v>
+        <v>0.234830631947253</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4818928574293763</v>
+        <v>0.6332294524608144</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>15.51205758208062</v>
+        <v>21.9864363063506</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -20299,19 +20295,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.482975404958893</v>
+        <v>3.531614441687146</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9919540534564515</v>
+        <v>1.383005818022349</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.434441255701347</v>
+        <v>0.6675934106940796</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.217774775957727</v>
+        <v>1.879259013996513</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>46.202488186386</v>
+        <v>71.16583818254293</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -20601,19 +20597,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9092553636166536</v>
+        <v>1.320235229297533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7099662940552917</v>
+        <v>0.8998726202419561</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2865850907141627</v>
+        <v>0.4142804638619019</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.953548826026572</v>
+        <v>1.149014895159124</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>38.39836760841316</v>
+        <v>45.50872263284278</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -20645,19 +20641,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.338185877778075</v>
+        <v>0.315538017857093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3391028143398095</v>
+        <v>0.3104640235333397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2206244270357556</v>
+        <v>0.2555271154896792</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5815375119268533</v>
+        <v>0.5617277079307135</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>13.82261766281033</v>
+        <v>14.45011760172365</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -20689,19 +20685,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2949130138505059</v>
+        <v>0.3691471819175935</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4306177478124328</v>
+        <v>0.4769112638620746</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2196171675164687</v>
+        <v>0.2834609354288372</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5430589414147473</v>
+        <v>0.6075748364749757</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.3037955532347</v>
+        <v>21.2679948297185</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -21321,19 +21317,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05540346944606855</v>
+        <v>0.01823844395305023</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1797238506197312</v>
+        <v>0.1000504580280115</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3049372555243392</v>
+        <v>0.2047584900225682</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2353794159353544</v>
+        <v>0.1350497832395529</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.63544785432967</v>
+        <v>17.93338098150759</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -21351,19 +21347,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.07076709657957025</v>
+        <v>0.0282555313805199</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2048923875001729</v>
+        <v>0.1374549094382148</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3111728351249646</v>
+        <v>0.21397174191234</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2660208574145461</v>
+        <v>0.1680938171989675</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>34.8455531977655</v>
+        <v>23.51840447741984</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -21709,23 +21705,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04348273438289393</v>
+        <v>0.01176595703442699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1693361974100751</v>
+        <v>0.07951199542132101</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3038418654835328</v>
+        <v>0.1849764241717563</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2085251408892796</v>
+        <v>0.1084709962820799</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.64570232901825</v>
+        <v>15.22140165452253</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -21739,23 +21735,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.04506418858783496</v>
+        <v>0.01355474140311213</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1733071452075152</v>
+        <v>0.08728638816431539</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2966690653975481</v>
+        <v>0.1888597444476189</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2122832743949343</v>
+        <v>0.1164248315571559</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>28.65551661849458</v>
+        <v>16.07010737982534</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -21771,23 +21767,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08915429885523851</v>
+        <v>0.02251206884166292</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2287125422088791</v>
+        <v>0.1105579975201127</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4577672053377765</v>
+        <v>0.3384889829651755</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2985871712837618</v>
+        <v>0.1500402240789546</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>37.87681244220084</v>
+        <v>20.41015155284274</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21805,19 +21801,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06275988806946858</v>
+        <v>0.01948154620747692</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1981913316615816</v>
+        <v>0.1061313315558088</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3925422397196305</v>
+        <v>0.2848615086891056</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2505192369249687</v>
+        <v>0.1395763096212137</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>31.5335365782307</v>
+        <v>19.58723403894407</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -21833,23 +21829,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06152583666238644</v>
+        <v>0.0188664919625202</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2086178612640399</v>
+        <v>0.0885721496880921</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3465985226352081</v>
+        <v>0.2356470646888694</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.248044021621942</v>
+        <v>0.1373553492315469</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>34.63416298934553</v>
+        <v>17.4298044515257</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -21863,23 +21859,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.04365201042025989</v>
+        <v>0.02171176131116031</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.175114699753128</v>
+        <v>0.1135378353880913</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3115519182124988</v>
+        <v>0.2578141057013335</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2089306354277895</v>
+        <v>0.1473491137101283</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.56324623707864</v>
+        <v>23.06729277729652</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -22631,19 +22627,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1675967823640964</v>
+        <v>0.1855970397758388</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3446347064254013</v>
+        <v>0.3849991820211403</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1264639223015057</v>
+        <v>0.1562931906784266</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4093858599953062</v>
+        <v>0.4308097489331443</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>13.75666586778244</v>
+        <v>15.87409243585403</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -22661,19 +22657,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.2284517442447556</v>
+        <v>0.2243913324421131</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.415061364347806</v>
+        <v>0.3861828556161904</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1512621243420675</v>
+        <v>0.1516925056070654</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.4779662584793571</v>
+        <v>0.473699622590216</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>16.50057377626895</v>
+        <v>16.27112048712245</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -23019,53 +23015,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.09230944187749975</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2426730301162596</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.09475656921176989</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3038246893810636</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>9.937851175458549</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.1037857765437653</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.2653930222838351</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.09562363556969126</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.3221579993477817</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>10.22178616454739</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.08160030160926184</v>
+        <v>0.05311495547481464</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2488984104349154</v>
+        <v>0.1875822233887716</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.08981864896252001</v>
+        <v>0.07284553250476097</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2856576650630293</v>
+        <v>0.2304668207677943</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>9.446515317533219</v>
+        <v>7.472944844178373</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -23085,19 +23081,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03297333959832891</v>
+        <v>0.1402746789512958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1390371688369416</v>
+        <v>0.2220496648164177</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04794267560251703</v>
+        <v>0.1107900881811408</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1815856260785223</v>
+        <v>0.3745326140021664</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.954406201677393</v>
+        <v>9.118671836635095</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -23115,19 +23111,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.03278953379859571</v>
+        <v>0.1055369469724299</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1376312683811841</v>
+        <v>0.1809678181782545</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.04750657262365651</v>
+        <v>0.09361869200252497</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.181078805492514</v>
+        <v>0.3248645055595177</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>4.9051482470785</v>
+        <v>7.613517028822459</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -23147,19 +23143,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1174200945051073</v>
+        <v>0.1485329673896753</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2815074520562117</v>
+        <v>0.3063843670077698</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09679313694413218</v>
+        <v>0.1294381098440063</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.342666156054413</v>
+        <v>0.3853997501162595</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>10.39207527208018</v>
+        <v>12.39971531547715</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -23173,23 +23169,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1841841871737395</v>
+        <v>0.1201094180844852</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2862847189241925</v>
+        <v>0.2784976329250575</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1009642710328649</v>
+        <v>0.118221065235067</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.4291668523706595</v>
+        <v>0.34656805693036</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>11.13581712733712</v>
+        <v>11.36022174643597</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -23942,19 +23938,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.19677148321869</v>
+        <v>0.2475285008721458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3369411563237637</v>
+        <v>0.3821842345087847</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1535105040497561</v>
+        <v>0.2020264681408425</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4435893181972375</v>
+        <v>0.4975223621829936</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>14.45822045978878</v>
+        <v>17.14553091640598</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23972,19 +23968,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.2409572460250274</v>
+        <v>0.2681167364563791</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3968553343750301</v>
+        <v>0.3916164072549055</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1625842727405393</v>
+        <v>0.1731262224882814</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.490873961445326</v>
+        <v>0.5177999000158064</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>16.91146517982486</v>
+        <v>17.26738009671818</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -24330,23 +24326,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.115844849218058</v>
+        <v>0.1818791133462259</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2424718892526222</v>
+        <v>0.2922209132499958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1083478720971364</v>
+        <v>0.1450472528321286</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3403598819162711</v>
+        <v>0.4264728752760554</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>10.46374423058977</v>
+        <v>13.51845970734718</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -24360,23 +24356,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.08627900193927911</v>
+        <v>0.1129052942203967</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2275432346756592</v>
+        <v>0.2446854703214951</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1142866781219151</v>
+        <v>0.1431364031591964</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2937328751421589</v>
+        <v>0.3360138304004713</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>9.867944599791514</v>
+        <v>11.81953289718334</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -24396,19 +24392,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2179275331892198</v>
+        <v>0.2459936769347355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2940627821263538</v>
+        <v>0.2770950449453835</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1852782151283111</v>
+        <v>0.2219803662577589</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.466827091318852</v>
+        <v>0.4959774963995196</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>12.94232464070354</v>
+        <v>13.34579257051927</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -24426,19 +24422,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1616580296161593</v>
+        <v>0.2565996798205938</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2382372765661812</v>
+        <v>0.3095932558256654</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1529583813499795</v>
+        <v>0.2312465128187598</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4020671953991762</v>
+        <v>0.5065566896415383</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>10.83492525199932</v>
+        <v>14.56308074571614</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24458,19 +24454,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2240613160057778</v>
+        <v>0.286475716431731</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3707002238143164</v>
+        <v>0.405380922580215</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1883102587671582</v>
+        <v>0.2490139947840604</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4733511550696562</v>
+        <v>0.535234263133192</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>15.91148132267626</v>
+        <v>18.39233109828974</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -24484,23 +24480,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1542748076771317</v>
+        <v>0.2626438513323353</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2490191669879873</v>
+        <v>0.3739947059031195</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1577804642180265</v>
+        <v>0.2376992748487816</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.3927783187462512</v>
+        <v>0.5124879035961096</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>11.11681349297411</v>
+        <v>17.15402196578883</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -25253,19 +25249,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1895363614506785</v>
+        <v>0.2032499755307563</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3272579801304239</v>
+        <v>0.3606298555860502</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1238857122072029</v>
+        <v>0.1531233812270437</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4353577396241837</v>
+        <v>0.4508325360161534</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>13.33152973079576</v>
+        <v>15.83476523705686</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25283,19 +25279,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.2420500523364548</v>
+        <v>0.1652973486931761</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4113480464183404</v>
+        <v>0.3349683467662051</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1555430089152881</v>
+        <v>0.1304195955032874</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.4919858253409897</v>
+        <v>0.4065677664217567</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>17.14203581828942</v>
+        <v>13.58307705121244</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -25645,19 +25641,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.08564161919719018</v>
+        <v>0.1901168877613868</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2312168309081718</v>
+        <v>0.3360853403748432</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08903296941549271</v>
+        <v>0.1672082549038958</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2926458938669569</v>
+        <v>0.4360239531968247</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>9.255910984569903</v>
+        <v>15.46649673232905</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -25671,23 +25667,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1238276389378373</v>
+        <v>0.08703839573952027</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2850577171425751</v>
+        <v>0.227566989304404</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1109004660681943</v>
+        <v>0.1209673369969407</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.3518915158650991</v>
+        <v>0.2950227037695917</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>11.73333043557653</v>
+        <v>10.31368784926044</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -25707,19 +25703,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1087139400756869</v>
+        <v>0.1658411429538074</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1901645635819708</v>
+        <v>0.2147877859944868</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09269587224406588</v>
+        <v>0.1571552489891985</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.329717970507655</v>
+        <v>0.4072359794441148</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.784886397842363</v>
+        <v>10.09490765309687</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -25733,23 +25729,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.07642959865466165</v>
+        <v>0.6082154617179774</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1838331973264866</v>
+        <v>0.568251056543756</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.08250148857264178</v>
+        <v>0.2831691257080932</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2764590361240913</v>
+        <v>0.7798816972579734</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>7.473524502520023</v>
+        <v>25.55472366344989</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25769,19 +25765,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1978918966651334</v>
+        <v>0.2389838325396882</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3666524168043587</v>
+        <v>0.3585749514369222</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1454281464474313</v>
+        <v>0.2048606581496311</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4448504205518226</v>
+        <v>0.4888597268539189</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.55627453083697</v>
+        <v>15.59589393514153</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -25799,19 +25795,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1871640363824381</v>
+        <v>0.2209084828298467</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3425439017464894</v>
+        <v>0.3366364315528609</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1391792210250701</v>
+        <v>0.1947933591498762</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.4326245905891598</v>
+        <v>0.4700090242004367</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>13.58257510448144</v>
+        <v>14.7243450560948</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -26566,19 +26562,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.932774946115339e-05</v>
+        <v>0.02034248627339473</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.006269820781953388</v>
+        <v>0.1199754588237683</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.00868613329770568</v>
+        <v>0.2017186703635011</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.007702450873660499</v>
+        <v>0.1426270881473597</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.8718769459411675</v>
+        <v>19.84204501213828</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -26596,19 +26592,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>5.670395575259744e-05</v>
+        <v>0.01944121478201441</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.00618587635115599</v>
+        <v>0.1181574632877669</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.008568299228267604</v>
+        <v>0.2147016377254308</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.00753020290248526</v>
+        <v>0.1394317567199611</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.8604615176124008</v>
+        <v>19.59337066523083</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -26954,23 +26950,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04114734188520465</v>
+        <v>0.05451703812834108</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1650481995131477</v>
+        <v>0.2028346450434757</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2198601471048602</v>
+        <v>0.3429547863883313</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2028480758725718</v>
+        <v>0.2334888394085274</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>25.8457865819936</v>
+        <v>34.73115794735016</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -26984,23 +26980,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02599492098641048</v>
+        <v>0.03274866209036852</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1414482675718835</v>
+        <v>0.1381530187588965</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1861370292885272</v>
+        <v>0.3168933572815534</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1612294048441862</v>
+        <v>0.1809659141671948</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>20.91638233408591</v>
+        <v>22.89279019231043</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -27016,23 +27012,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.731247647678252e-05</v>
+        <v>0.05556702013290635</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00699199740404451</v>
+        <v>0.1737266730779915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01084481228747961</v>
+        <v>0.4529079148454006</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008792751359886308</v>
+        <v>0.2357265791821244</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.095235725030358</v>
+        <v>26.96873841191132</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27046,23 +27042,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1217932438686728</v>
+        <v>0.1450997176898691</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2898846006942802</v>
+        <v>0.2917815895831065</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4033869890234055</v>
+        <v>0.5081793778519357</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.348988887887097</v>
+        <v>0.380919568531034</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>44.86300911304873</v>
+        <v>53.26273759085785</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -27078,53 +27074,53 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.04322328802579688</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1632524188317449</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.3413974975559899</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2079021116434291</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>26.7591790866523</v>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>Gradient Boosting Regressor</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>0.0416888472288236</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0.1661350450604764</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0.2156247280370957</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>0.2041784690627873</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>24.16351718458568</v>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>Gradient Boosting Regressor</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
-        </is>
-      </c>
       <c r="L15" s="8" t="n">
-        <v>0.04001435735692079</v>
+        <v>0.03212928056021806</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1565718134789168</v>
+        <v>0.1312305178854618</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2041223535982498</v>
+        <v>0.335902616886552</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2000358901720408</v>
+        <v>0.1792464241211469</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>22.54896658180764</v>
+        <v>21.54500853042813</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -27880,19 +27876,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0004682832780754565</v>
+        <v>0.03869135587282992</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01723844801676632</v>
+        <v>0.1496812862677691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03360090530299893</v>
+        <v>0.2890941845354147</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.02163985392916173</v>
+        <v>0.1967011842181687</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>3.219820764876216</v>
+        <v>26.01927199698044</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -27910,19 +27906,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0004076799351637765</v>
+        <v>0.04146024117487552</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0161501185034989</v>
+        <v>0.151462709707211</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.03321079986018184</v>
+        <v>0.2849133787989453</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.02019108553703283</v>
+        <v>0.2036178802926588</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>3.160393079014774</v>
+        <v>26.2148541092099</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -28272,19 +28268,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02726005333597184</v>
+        <v>0.07713488888966184</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.135888526705773</v>
+        <v>0.2283983422002978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3338138650650103</v>
+        <v>0.4778647943155026</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1651061880608108</v>
+        <v>0.2777316850661117</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.97500259396117</v>
+        <v>42.05785804351857</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28298,23 +28294,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0269179589725991</v>
+        <v>0.06019541379008422</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1386560619771207</v>
+        <v>0.1926686026021746</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2776586725148757</v>
+        <v>0.424246284717866</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1640669344279922</v>
+        <v>0.2453475367516132</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>23.80768836927193</v>
+        <v>34.90751193892147</v>
       </c>
     </row>
     <row r="14">
@@ -28330,23 +28326,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1451097145912275</v>
+        <v>0.1091209865662656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3201795385670908</v>
+        <v>0.2402088429532501</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8707797430828076</v>
+        <v>1.005756468251947</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3809326903682952</v>
+        <v>0.3303346584393856</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>50.93458052762546</v>
+        <v>37.81948171457611</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -28360,23 +28356,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.9648566435232955</v>
+        <v>0.08619908377729503</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.7684395253629711</v>
+        <v>0.2056880649201022</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>2.126461884496676</v>
+        <v>0.8781716636210757</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.9822711659838619</v>
+        <v>0.2935968047804591</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>111.1439154439705</v>
+        <v>33.94523887027801</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28396,19 +28392,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0574776731574184</v>
+        <v>0.06064513205659805</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1905682656129055</v>
+        <v>0.1971581782670922</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4941894232506477</v>
+        <v>0.6198237398719608</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2397450169605583</v>
+        <v>0.2462623236644169</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>32.04034189336659</v>
+        <v>34.950675367164</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -28426,19 +28422,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0574776731574184</v>
+        <v>0.06064513205659805</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1905682656129055</v>
+        <v>0.1971581782670922</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.4941894232506477</v>
+        <v>0.6198237398719608</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2397450169605583</v>
+        <v>0.2462623236644169</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>32.04034189336659</v>
+        <v>34.950675367164</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -29192,19 +29188,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01047935899218161</v>
+        <v>0.02126509835639977</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.08278383381960103</v>
+        <v>0.1155287589099235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1331724182618593</v>
+        <v>0.2565442030219826</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1023687403076819</v>
+        <v>0.1458255751108144</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>13.5509751797605</v>
+        <v>21.31003865400677</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -29222,19 +29218,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.01194696306905495</v>
+        <v>0.01965098780091258</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.08793627522453093</v>
+        <v>0.1055185069555351</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1448751092024821</v>
+        <v>0.2187167821971025</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1093021640639148</v>
+        <v>0.1401819810136545</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>14.71217012680058</v>
+        <v>19.26045044139509</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -29580,23 +29576,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02907658046295158</v>
+        <v>0.05845179144037639</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1353763726642368</v>
+        <v>0.1979680175775664</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2406482521588157</v>
+        <v>0.4180143038226883</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1705185633969263</v>
+        <v>0.2417680529771797</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>22.05803344418776</v>
+        <v>35.37046074706453</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29610,23 +29606,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03407668467213694</v>
+        <v>0.07517725307419316</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1535861411669295</v>
+        <v>0.2291998869074655</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2601967095695819</v>
+        <v>0.4210548706065664</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1845987125419268</v>
+        <v>0.2741847061274446</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>25.06312154682331</v>
+        <v>41.17260607017785</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29646,19 +29642,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06108765055602396</v>
+        <v>0.1627350128053191</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2054615809783053</v>
+        <v>0.3331919498829343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4337785039824949</v>
+        <v>0.8723106351968004</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2471591603724692</v>
+        <v>0.4034042796070947</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>32.12271698165227</v>
+        <v>56.933022529353</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -29676,19 +29672,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.07921902887936937</v>
+        <v>0.1441819368032091</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2342453537560244</v>
+        <v>0.313028037459043</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5008661375874364</v>
+        <v>0.9019480318664626</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2814587516482111</v>
+        <v>0.3797129663353743</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.96706132134748</v>
+        <v>52.49700945679252</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29708,19 +29704,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04782404345183773</v>
+        <v>0.05157102486245422</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1742824847985343</v>
+        <v>0.1811416735189567</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3331198304931531</v>
+        <v>0.4979663056785693</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2186870902724661</v>
+        <v>0.2270925469108447</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.90827459139453</v>
+        <v>31.42641404056277</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -29734,23 +29730,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.04782404345183773</v>
+        <v>0.08209481183022932</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1742824847985343</v>
+        <v>0.240476861806851</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3331198304931531</v>
+        <v>0.5131038114961671</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2186870902724661</v>
+        <v>0.2865219220761813</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>27.90827459139453</v>
+        <v>43.1472593693756</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
